--- a/AccessibleVaccineDashboardData/2021-02-20.xlsx
+++ b/AccessibleVaccineDashboardData/2021-02-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnicholas000\Desktop\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DDE323F-6E9C-4DB2-BE70-EDB257E2F48E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9A7808A-AAF1-442B-9D58-11EE12BD81C0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About the Data" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="311">
   <si>
     <t>County Name</t>
   </si>
@@ -1567,9 +1567,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1577,7 +1575,7 @@
     <col min="2" max="2" width="121.46484375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="48.65" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>270</v>
       </c>
@@ -1585,15 +1583,15 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>299</v>
       </c>
       <c r="B2" s="29">
-        <v>44246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
+        <v>44247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>267</v>
       </c>
@@ -1617,7 +1615,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1625,7 +1623,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1641,7 +1639,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>264</v>
       </c>
@@ -1695,25 +1693,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="14" customWidth="1"/>
     <col min="2" max="3" width="12.19921875" style="6" customWidth="1"/>
     <col min="4" max="5" width="20.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.73046875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.796875" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.46484375" style="6" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.06640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.73046875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.796875" style="6" customWidth="1"/>
     <col min="11" max="11" width="12" style="6" customWidth="1"/>
     <col min="12" max="12" width="9.19921875" style="5"/>
     <col min="13" max="14" width="9.19921875" style="12"/>
     <col min="15" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="64.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1763,15 +1761,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>4325352</v>
+        <v>4395705</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>3047251</v>
+        <v>3082676</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>1278101</v>
+        <v>1313029</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1796,7 +1794,7 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>290</v>
       </c>
@@ -1833,7 +1831,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
@@ -1844,13 +1842,13 @@
         <v>6400</v>
       </c>
       <c r="D4" s="37">
-        <v>4348</v>
+        <v>4356</v>
       </c>
       <c r="E4" s="37">
-        <v>2822</v>
+        <v>2817</v>
       </c>
       <c r="F4" s="37">
-        <v>1526</v>
+        <v>1539</v>
       </c>
       <c r="G4" s="38">
         <v>48045</v>
@@ -1868,7 +1866,7 @@
         <v>20206</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>7</v>
       </c>
@@ -1879,13 +1877,13 @@
         <v>2200</v>
       </c>
       <c r="D5" s="37">
-        <v>3017</v>
+        <v>3045</v>
       </c>
       <c r="E5" s="37">
-        <v>2369</v>
+        <v>2377</v>
       </c>
       <c r="F5" s="37">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="G5" s="38">
         <v>13503</v>
@@ -1903,7 +1901,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
@@ -1914,13 +1912,13 @@
         <v>17900</v>
       </c>
       <c r="D6" s="37">
-        <v>13572</v>
+        <v>13618</v>
       </c>
       <c r="E6" s="37">
-        <v>9135</v>
+        <v>9170</v>
       </c>
       <c r="F6" s="37">
-        <v>4437</v>
+        <v>4448</v>
       </c>
       <c r="G6" s="38">
         <v>67056</v>
@@ -1938,7 +1936,7 @@
         <v>28054</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>9</v>
       </c>
@@ -1949,13 +1947,13 @@
         <v>1300</v>
       </c>
       <c r="D7" s="37">
-        <v>3167</v>
+        <v>3355</v>
       </c>
       <c r="E7" s="37">
-        <v>2333</v>
+        <v>2461</v>
       </c>
       <c r="F7" s="37">
-        <v>834</v>
+        <v>894</v>
       </c>
       <c r="G7" s="38">
         <v>19803</v>
@@ -1973,7 +1971,7 @@
         <v>6701</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>10</v>
       </c>
@@ -1984,13 +1982,13 @@
         <v>900</v>
       </c>
       <c r="D8" s="37">
-        <v>1896</v>
+        <v>1921</v>
       </c>
       <c r="E8" s="37">
-        <v>1296</v>
+        <v>1312</v>
       </c>
       <c r="F8" s="37">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="G8" s="38">
         <v>6921</v>
@@ -2008,7 +2006,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>11</v>
       </c>
@@ -2022,10 +2020,10 @@
         <v>561</v>
       </c>
       <c r="E9" s="37">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F9" s="37">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G9" s="38">
         <v>1499</v>
@@ -2043,7 +2041,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>12</v>
       </c>
@@ -2054,13 +2052,13 @@
         <v>4100</v>
       </c>
       <c r="D10" s="37">
-        <v>4815</v>
+        <v>4869</v>
       </c>
       <c r="E10" s="37">
-        <v>3417</v>
+        <v>3434</v>
       </c>
       <c r="F10" s="37">
-        <v>1398</v>
+        <v>1435</v>
       </c>
       <c r="G10" s="38">
         <v>38768</v>
@@ -2089,13 +2087,13 @@
         <v>2300</v>
       </c>
       <c r="D11" s="37">
-        <v>5342</v>
+        <v>5231</v>
       </c>
       <c r="E11" s="37">
-        <v>4236</v>
+        <v>4104</v>
       </c>
       <c r="F11" s="37">
-        <v>1106</v>
+        <v>1127</v>
       </c>
       <c r="G11" s="38">
         <v>23704</v>
@@ -2124,13 +2122,13 @@
         <v>7425</v>
       </c>
       <c r="D12" s="37">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="E12" s="37">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="F12" s="37">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="G12" s="38">
         <v>5089</v>
@@ -2159,13 +2157,13 @@
         <v>600</v>
       </c>
       <c r="D13" s="37">
-        <v>2613</v>
+        <v>2834</v>
       </c>
       <c r="E13" s="37">
-        <v>2073</v>
+        <v>2161</v>
       </c>
       <c r="F13" s="37">
-        <v>540</v>
+        <v>673</v>
       </c>
       <c r="G13" s="38">
         <v>19763</v>
@@ -2194,13 +2192,13 @@
         <v>10900</v>
       </c>
       <c r="D14" s="37">
-        <v>6419</v>
+        <v>6680</v>
       </c>
       <c r="E14" s="37">
-        <v>4447</v>
+        <v>4680</v>
       </c>
       <c r="F14" s="37">
-        <v>1972</v>
+        <v>2000</v>
       </c>
       <c r="G14" s="38">
         <v>68839</v>
@@ -2229,13 +2227,13 @@
         <v>3050</v>
       </c>
       <c r="D15" s="37">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E15" s="37">
         <v>857</v>
       </c>
       <c r="F15" s="37">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G15" s="38">
         <v>2793</v>
@@ -2264,13 +2262,13 @@
         <v>23100</v>
       </c>
       <c r="D16" s="37">
-        <v>8356</v>
+        <v>8374</v>
       </c>
       <c r="E16" s="37">
-        <v>5569</v>
+        <v>5565</v>
       </c>
       <c r="F16" s="37">
-        <v>2787</v>
+        <v>2809</v>
       </c>
       <c r="G16" s="38">
         <v>26496</v>
@@ -2299,13 +2297,13 @@
         <v>58050</v>
       </c>
       <c r="D17" s="37">
-        <v>36157</v>
+        <v>36241</v>
       </c>
       <c r="E17" s="37">
-        <v>24756</v>
+        <v>24792</v>
       </c>
       <c r="F17" s="37">
-        <v>11401</v>
+        <v>11449</v>
       </c>
       <c r="G17" s="38">
         <v>272969</v>
@@ -2334,13 +2332,13 @@
         <v>452750</v>
       </c>
       <c r="D18" s="37">
-        <v>303526</v>
+        <v>309744</v>
       </c>
       <c r="E18" s="37">
-        <v>211429</v>
+        <v>214072</v>
       </c>
       <c r="F18" s="37">
-        <v>92097</v>
+        <v>95672</v>
       </c>
       <c r="G18" s="38">
         <v>1552823</v>
@@ -2369,10 +2367,10 @@
         <v>1300</v>
       </c>
       <c r="D19" s="37">
-        <v>1866</v>
+        <v>1841</v>
       </c>
       <c r="E19" s="37">
-        <v>1538</v>
+        <v>1513</v>
       </c>
       <c r="F19" s="37">
         <v>328</v>
@@ -2439,13 +2437,13 @@
         <v>3000</v>
       </c>
       <c r="D21" s="37">
-        <v>2841</v>
+        <v>2895</v>
       </c>
       <c r="E21" s="37">
-        <v>1747</v>
+        <v>1772</v>
       </c>
       <c r="F21" s="37">
-        <v>1094</v>
+        <v>1123</v>
       </c>
       <c r="G21" s="38">
         <v>15224</v>
@@ -2474,13 +2472,13 @@
         <v>15850</v>
       </c>
       <c r="D22" s="37">
-        <v>7338</v>
+        <v>7687</v>
       </c>
       <c r="E22" s="37">
-        <v>4849</v>
+        <v>4852</v>
       </c>
       <c r="F22" s="37">
-        <v>2489</v>
+        <v>2835</v>
       </c>
       <c r="G22" s="38">
         <v>73689</v>
@@ -2509,13 +2507,13 @@
         <v>45000</v>
       </c>
       <c r="D23" s="37">
-        <v>54551</v>
+        <v>56042</v>
       </c>
       <c r="E23" s="37">
-        <v>36827</v>
+        <v>37580</v>
       </c>
       <c r="F23" s="37">
-        <v>17724</v>
+        <v>18462</v>
       </c>
       <c r="G23" s="38">
         <v>287683</v>
@@ -2544,13 +2542,13 @@
         <v>33900</v>
       </c>
       <c r="D24" s="37">
-        <v>23537</v>
+        <v>24471</v>
       </c>
       <c r="E24" s="37">
-        <v>17162</v>
+        <v>17397</v>
       </c>
       <c r="F24" s="37">
-        <v>6375</v>
+        <v>7074</v>
       </c>
       <c r="G24" s="38">
         <v>186843</v>
@@ -2579,13 +2577,13 @@
         <v>1600</v>
       </c>
       <c r="D25" s="37">
-        <v>2248</v>
+        <v>2281</v>
       </c>
       <c r="E25" s="37">
-        <v>1904</v>
+        <v>1914</v>
       </c>
       <c r="F25" s="37">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="G25" s="38">
         <v>7706</v>
@@ -2614,13 +2612,13 @@
         <v>400</v>
       </c>
       <c r="D26" s="37">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E26" s="37">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F26" s="37">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G26" s="38">
         <v>1272</v>
@@ -2649,13 +2647,13 @@
         <v>1300</v>
       </c>
       <c r="D27" s="37">
-        <v>1235</v>
+        <v>1244</v>
       </c>
       <c r="E27" s="37">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="F27" s="37">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G27" s="38">
         <v>5317</v>
@@ -2684,13 +2682,13 @@
         <v>3000</v>
       </c>
       <c r="D28" s="37">
-        <v>3694</v>
+        <v>3752</v>
       </c>
       <c r="E28" s="37">
-        <v>2630</v>
+        <v>2659</v>
       </c>
       <c r="F28" s="37">
-        <v>1064</v>
+        <v>1093</v>
       </c>
       <c r="G28" s="38">
         <v>30883</v>
@@ -2719,13 +2717,13 @@
         <v>1100</v>
       </c>
       <c r="D29" s="37">
-        <v>2208</v>
+        <v>2245</v>
       </c>
       <c r="E29" s="37">
-        <v>1633</v>
+        <v>1638</v>
       </c>
       <c r="F29" s="37">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="G29" s="38">
         <v>14869</v>
@@ -2754,13 +2752,13 @@
         <v>8475</v>
       </c>
       <c r="D30" s="37">
-        <v>5076</v>
+        <v>5123</v>
       </c>
       <c r="E30" s="37">
-        <v>3941</v>
+        <v>3972</v>
       </c>
       <c r="F30" s="37">
-        <v>1135</v>
+        <v>1151</v>
       </c>
       <c r="G30" s="38">
         <v>39239</v>
@@ -2789,13 +2787,13 @@
         <v>3700</v>
       </c>
       <c r="D31" s="37">
-        <v>3482</v>
+        <v>3555</v>
       </c>
       <c r="E31" s="37">
-        <v>2410</v>
+        <v>2449</v>
       </c>
       <c r="F31" s="37">
-        <v>1072</v>
+        <v>1106</v>
       </c>
       <c r="G31" s="38">
         <v>34853</v>
@@ -2824,13 +2822,13 @@
         <v>1400</v>
       </c>
       <c r="D32" s="37">
-        <v>2507</v>
+        <v>2608</v>
       </c>
       <c r="E32" s="37">
-        <v>1741</v>
+        <v>1777</v>
       </c>
       <c r="F32" s="37">
-        <v>766</v>
+        <v>831</v>
       </c>
       <c r="G32" s="38">
         <v>16817</v>
@@ -2859,13 +2857,13 @@
         <v>1300</v>
       </c>
       <c r="D33" s="37">
-        <v>1668</v>
+        <v>1705</v>
       </c>
       <c r="E33" s="37">
-        <v>1204</v>
+        <v>1229</v>
       </c>
       <c r="F33" s="37">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="G33" s="38">
         <v>11263</v>
@@ -2894,13 +2892,13 @@
         <v>89425</v>
       </c>
       <c r="D34" s="37">
-        <v>77793</v>
+        <v>78678</v>
       </c>
       <c r="E34" s="37">
-        <v>53837</v>
+        <v>54450</v>
       </c>
       <c r="F34" s="37">
-        <v>23956</v>
+        <v>24228</v>
       </c>
       <c r="G34" s="38">
         <v>311689</v>
@@ -2929,13 +2927,13 @@
         <v>400</v>
       </c>
       <c r="D35" s="37">
-        <v>1289</v>
+        <v>1339</v>
       </c>
       <c r="E35" s="37">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="F35" s="37">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="G35" s="38">
         <v>10031</v>
@@ -2967,10 +2965,10 @@
         <v>1192</v>
       </c>
       <c r="E36" s="37">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F36" s="37">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G36" s="38">
         <v>4718</v>
@@ -2999,13 +2997,13 @@
         <v>700</v>
       </c>
       <c r="D37" s="37">
-        <v>1407</v>
+        <v>1479</v>
       </c>
       <c r="E37" s="37">
-        <v>958</v>
+        <v>977</v>
       </c>
       <c r="F37" s="37">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="G37" s="38">
         <v>24182</v>
@@ -3034,13 +3032,13 @@
         <v>1300</v>
       </c>
       <c r="D38" s="37">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="E38" s="37">
         <v>942</v>
       </c>
       <c r="F38" s="37">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G38" s="38">
         <v>5607</v>
@@ -3069,13 +3067,13 @@
         <v>11700</v>
       </c>
       <c r="D39" s="37">
-        <v>4740</v>
+        <v>4929</v>
       </c>
       <c r="E39" s="37">
-        <v>3150</v>
+        <v>3314</v>
       </c>
       <c r="F39" s="37">
-        <v>1590</v>
+        <v>1615</v>
       </c>
       <c r="G39" s="38">
         <v>33062</v>
@@ -3104,13 +3102,13 @@
         <v>6800</v>
       </c>
       <c r="D40" s="37">
-        <v>5784</v>
+        <v>5945</v>
       </c>
       <c r="E40" s="37">
-        <v>3942</v>
+        <v>4004</v>
       </c>
       <c r="F40" s="37">
-        <v>1842</v>
+        <v>1941</v>
       </c>
       <c r="G40" s="38">
         <v>40876</v>
@@ -3139,13 +3137,13 @@
         <v>1700</v>
       </c>
       <c r="D41" s="37">
-        <v>1317</v>
+        <v>1343</v>
       </c>
       <c r="E41" s="37">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="F41" s="37">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="G41" s="38">
         <v>6094</v>
@@ -3174,13 +3172,13 @@
         <v>5375</v>
       </c>
       <c r="D42" s="37">
-        <v>2901</v>
+        <v>2919</v>
       </c>
       <c r="E42" s="37">
-        <v>2292</v>
+        <v>2304</v>
       </c>
       <c r="F42" s="37">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="G42" s="38">
         <v>8666</v>
@@ -3209,10 +3207,10 @@
         <v>400</v>
       </c>
       <c r="D43" s="37">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E43" s="37">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F43" s="37">
         <v>142</v>
@@ -3244,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="37">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="E44" s="37">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F44" s="37">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G44" s="38">
         <v>2756</v>
@@ -3282,10 +3280,10 @@
         <v>993</v>
       </c>
       <c r="E45" s="37">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F45" s="37">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G45" s="38">
         <v>6721</v>
@@ -3314,13 +3312,13 @@
         <v>143350</v>
       </c>
       <c r="D46" s="37">
-        <v>156149</v>
+        <v>157664</v>
       </c>
       <c r="E46" s="37">
-        <v>116970</v>
+        <v>117628</v>
       </c>
       <c r="F46" s="37">
-        <v>39179</v>
+        <v>40036</v>
       </c>
       <c r="G46" s="38">
         <v>801716</v>
@@ -3349,13 +3347,13 @@
         <v>700</v>
       </c>
       <c r="D47" s="37">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E47" s="37">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F47" s="37">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G47" s="38">
         <v>2263</v>
@@ -3384,13 +3382,13 @@
         <v>2600</v>
       </c>
       <c r="D48" s="37">
-        <v>3264</v>
+        <v>3297</v>
       </c>
       <c r="E48" s="37">
-        <v>2582</v>
+        <v>2601</v>
       </c>
       <c r="F48" s="37">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="G48" s="38">
         <v>17107</v>
@@ -3419,13 +3417,13 @@
         <v>20500</v>
       </c>
       <c r="D49" s="37">
-        <v>22715</v>
+        <v>23328</v>
       </c>
       <c r="E49" s="37">
-        <v>17470</v>
+        <v>17862</v>
       </c>
       <c r="F49" s="37">
-        <v>5245</v>
+        <v>5466</v>
       </c>
       <c r="G49" s="38">
         <v>125307</v>
@@ -3454,13 +3452,13 @@
         <v>2950</v>
       </c>
       <c r="D50" s="37">
-        <v>2779</v>
+        <v>2854</v>
       </c>
       <c r="E50" s="37">
-        <v>1549</v>
+        <v>1579</v>
       </c>
       <c r="F50" s="37">
-        <v>1230</v>
+        <v>1275</v>
       </c>
       <c r="G50" s="38">
         <v>10944</v>
@@ -3489,13 +3487,13 @@
         <v>400</v>
       </c>
       <c r="D51" s="37">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="E51" s="37">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="F51" s="37">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G51" s="38">
         <v>2288</v>
@@ -3524,13 +3522,13 @@
         <v>4600</v>
       </c>
       <c r="D52" s="37">
-        <v>5000</v>
+        <v>5037</v>
       </c>
       <c r="E52" s="37">
-        <v>3612</v>
+        <v>3631</v>
       </c>
       <c r="F52" s="37">
-        <v>1388</v>
+        <v>1406</v>
       </c>
       <c r="G52" s="38">
         <v>32675</v>
@@ -3559,13 +3557,13 @@
         <v>9025</v>
       </c>
       <c r="D53" s="37">
-        <v>6600</v>
+        <v>6759</v>
       </c>
       <c r="E53" s="37">
-        <v>4625</v>
+        <v>4660</v>
       </c>
       <c r="F53" s="37">
-        <v>1975</v>
+        <v>2099</v>
       </c>
       <c r="G53" s="38">
         <v>60428</v>
@@ -3629,13 +3627,13 @@
         <v>2250</v>
       </c>
       <c r="D55" s="37">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E55" s="37">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F55" s="37">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G55" s="38">
         <v>3554</v>
@@ -3664,13 +3662,13 @@
         <v>0</v>
       </c>
       <c r="D56" s="37">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="E56" s="37">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F56" s="37">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G56" s="38">
         <v>2694</v>
@@ -3699,13 +3697,13 @@
         <v>2450</v>
       </c>
       <c r="D57" s="37">
-        <v>1492</v>
+        <v>1522</v>
       </c>
       <c r="E57" s="37">
-        <v>1185</v>
+        <v>1190</v>
       </c>
       <c r="F57" s="37">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="G57" s="38">
         <v>4421</v>
@@ -3734,13 +3732,13 @@
         <v>700</v>
       </c>
       <c r="D58" s="37">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E58" s="37">
         <v>296</v>
       </c>
       <c r="F58" s="37">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G58" s="38">
         <v>1746</v>
@@ -3769,13 +3767,13 @@
         <v>6850</v>
       </c>
       <c r="D59" s="37">
-        <v>2476</v>
+        <v>2436</v>
       </c>
       <c r="E59" s="37">
-        <v>1740</v>
+        <v>1706</v>
       </c>
       <c r="F59" s="37">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G59" s="38">
         <v>5217</v>
@@ -3804,13 +3802,13 @@
         <v>547325</v>
       </c>
       <c r="D60" s="37">
-        <v>355009</v>
+        <v>359031</v>
       </c>
       <c r="E60" s="37">
-        <v>250550</v>
+        <v>252233</v>
       </c>
       <c r="F60" s="37">
-        <v>104459</v>
+        <v>106798</v>
       </c>
       <c r="G60" s="38">
         <v>2028105</v>
@@ -3839,13 +3837,13 @@
         <v>1100</v>
       </c>
       <c r="D61" s="37">
-        <v>1161</v>
+        <v>1194</v>
       </c>
       <c r="E61" s="37">
-        <v>931</v>
+        <v>945</v>
       </c>
       <c r="F61" s="37">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G61" s="38">
         <v>9789</v>
@@ -3874,13 +3872,13 @@
         <v>2300</v>
       </c>
       <c r="D62" s="37">
-        <v>2431</v>
+        <v>2494</v>
       </c>
       <c r="E62" s="37">
-        <v>1699</v>
+        <v>1754</v>
       </c>
       <c r="F62" s="37">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="G62" s="38">
         <v>13439</v>
@@ -3909,13 +3907,13 @@
         <v>300</v>
       </c>
       <c r="D63" s="37">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="E63" s="37">
         <v>456</v>
       </c>
       <c r="F63" s="37">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G63" s="38">
         <v>4222</v>
@@ -3944,13 +3942,13 @@
         <v>123050</v>
       </c>
       <c r="D64" s="37">
-        <v>90840</v>
+        <v>92076</v>
       </c>
       <c r="E64" s="37">
-        <v>64055</v>
+        <v>64687</v>
       </c>
       <c r="F64" s="37">
-        <v>26785</v>
+        <v>27389</v>
       </c>
       <c r="G64" s="38">
         <v>697330</v>
@@ -3979,13 +3977,13 @@
         <v>1000</v>
       </c>
       <c r="D65" s="37">
-        <v>1787</v>
+        <v>1801</v>
       </c>
       <c r="E65" s="37">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="F65" s="37">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="G65" s="38">
         <v>16110</v>
@@ -4014,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="D66" s="37">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E66" s="37">
         <v>254</v>
       </c>
       <c r="F66" s="37">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G66" s="38">
         <v>1858</v>
@@ -4049,13 +4047,13 @@
         <v>8125</v>
       </c>
       <c r="D67" s="37">
-        <v>3374</v>
+        <v>3491</v>
       </c>
       <c r="E67" s="37">
-        <v>2695</v>
+        <v>2702</v>
       </c>
       <c r="F67" s="37">
-        <v>679</v>
+        <v>789</v>
       </c>
       <c r="G67" s="38">
         <v>7539</v>
@@ -4084,13 +4082,13 @@
         <v>300</v>
       </c>
       <c r="D68" s="37">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E68" s="37">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F68" s="37">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G68" s="38">
         <v>2716</v>
@@ -4119,13 +4117,13 @@
         <v>900</v>
       </c>
       <c r="D69" s="37">
-        <v>2193</v>
+        <v>2228</v>
       </c>
       <c r="E69" s="37">
-        <v>1512</v>
+        <v>1540</v>
       </c>
       <c r="F69" s="37">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="G69" s="38">
         <v>8600</v>
@@ -4154,13 +4152,13 @@
         <v>1400</v>
       </c>
       <c r="D70" s="37">
-        <v>1873</v>
+        <v>1892</v>
       </c>
       <c r="E70" s="37">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="F70" s="37">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="G70" s="38">
         <v>14970</v>
@@ -4189,13 +4187,13 @@
         <v>41800</v>
       </c>
       <c r="D71" s="37">
-        <v>26436</v>
+        <v>27690</v>
       </c>
       <c r="E71" s="37">
-        <v>20075</v>
+        <v>20277</v>
       </c>
       <c r="F71" s="37">
-        <v>6361</v>
+        <v>7413</v>
       </c>
       <c r="G71" s="38">
         <v>120896</v>
@@ -4224,13 +4222,13 @@
         <v>0</v>
       </c>
       <c r="D72" s="37">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E72" s="37">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F72" s="37">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G72" s="38">
         <v>1555</v>
@@ -4259,13 +4257,13 @@
         <v>194000</v>
       </c>
       <c r="D73" s="37">
-        <v>165790</v>
+        <v>168181</v>
       </c>
       <c r="E73" s="37">
-        <v>111842</v>
+        <v>112618</v>
       </c>
       <c r="F73" s="37">
-        <v>53948</v>
+        <v>55563</v>
       </c>
       <c r="G73" s="38">
         <v>640180</v>
@@ -4294,13 +4292,13 @@
         <v>16900</v>
       </c>
       <c r="D74" s="37">
-        <v>24546</v>
+        <v>24707</v>
       </c>
       <c r="E74" s="37">
-        <v>18447</v>
+        <v>18506</v>
       </c>
       <c r="F74" s="37">
-        <v>6099</v>
+        <v>6201</v>
       </c>
       <c r="G74" s="38">
         <v>141665</v>
@@ -4329,13 +4327,13 @@
         <v>3600</v>
       </c>
       <c r="D75" s="37">
-        <v>4207</v>
+        <v>4248</v>
       </c>
       <c r="E75" s="37">
-        <v>3103</v>
+        <v>3113</v>
       </c>
       <c r="F75" s="37">
-        <v>1104</v>
+        <v>1135</v>
       </c>
       <c r="G75" s="38">
         <v>34875</v>
@@ -4364,13 +4362,13 @@
         <v>7825</v>
       </c>
       <c r="D76" s="37">
-        <v>2128</v>
+        <v>2142</v>
       </c>
       <c r="E76" s="37">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="F76" s="37">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="G76" s="38">
         <v>14049</v>
@@ -4399,13 +4397,13 @@
         <v>10525</v>
       </c>
       <c r="D77" s="37">
-        <v>4762</v>
+        <v>4787</v>
       </c>
       <c r="E77" s="37">
-        <v>3316</v>
+        <v>3323</v>
       </c>
       <c r="F77" s="37">
-        <v>1446</v>
+        <v>1464</v>
       </c>
       <c r="G77" s="38">
         <v>28874</v>
@@ -4434,13 +4432,13 @@
         <v>1600</v>
       </c>
       <c r="D78" s="37">
-        <v>3364</v>
+        <v>3398</v>
       </c>
       <c r="E78" s="37">
-        <v>2654</v>
+        <v>2676</v>
       </c>
       <c r="F78" s="37">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="G78" s="38">
         <v>20879</v>
@@ -4469,13 +4467,13 @@
         <v>700</v>
       </c>
       <c r="D79" s="37">
-        <v>512</v>
+        <v>584</v>
       </c>
       <c r="E79" s="37">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="F79" s="37">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="G79" s="38">
         <v>3088</v>
@@ -4504,13 +4502,13 @@
         <v>700</v>
       </c>
       <c r="D80" s="37">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="E80" s="37">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F80" s="37">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G80" s="38">
         <v>4371</v>
@@ -4539,10 +4537,10 @@
         <v>500</v>
       </c>
       <c r="D81" s="37">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E81" s="37">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F81" s="37">
         <v>126</v>
@@ -4574,13 +4572,13 @@
         <v>116900</v>
       </c>
       <c r="D82" s="37">
-        <v>145641</v>
+        <v>149688</v>
       </c>
       <c r="E82" s="37">
-        <v>101855</v>
+        <v>104300</v>
       </c>
       <c r="F82" s="37">
-        <v>43786</v>
+        <v>45388</v>
       </c>
       <c r="G82" s="38">
         <v>616413</v>
@@ -4609,13 +4607,13 @@
         <v>900</v>
       </c>
       <c r="D83" s="37">
-        <v>1281</v>
+        <v>1303</v>
       </c>
       <c r="E83" s="37">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F83" s="37">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="G83" s="38">
         <v>8554</v>
@@ -4644,13 +4642,13 @@
         <v>1300</v>
       </c>
       <c r="D84" s="37">
-        <v>1441</v>
+        <v>1449</v>
       </c>
       <c r="E84" s="37">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="F84" s="37">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G84" s="38">
         <v>15808</v>
@@ -4679,13 +4677,13 @@
         <v>4650</v>
       </c>
       <c r="D85" s="37">
-        <v>2831</v>
+        <v>2838</v>
       </c>
       <c r="E85" s="37">
-        <v>2027</v>
+        <v>2031</v>
       </c>
       <c r="F85" s="37">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="G85" s="38">
         <v>16121</v>
@@ -4714,13 +4712,13 @@
         <v>1600</v>
       </c>
       <c r="D86" s="37">
-        <v>1665</v>
+        <v>1748</v>
       </c>
       <c r="E86" s="37">
-        <v>1075</v>
+        <v>1152</v>
       </c>
       <c r="F86" s="37">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="G86" s="38">
         <v>14548</v>
@@ -4749,13 +4747,13 @@
         <v>69200</v>
       </c>
       <c r="D87" s="37">
-        <v>68582</v>
+        <v>70324</v>
       </c>
       <c r="E87" s="37">
-        <v>44466</v>
+        <v>44828</v>
       </c>
       <c r="F87" s="37">
-        <v>24116</v>
+        <v>25496</v>
       </c>
       <c r="G87" s="38">
         <v>269280</v>
@@ -4784,13 +4782,13 @@
         <v>500</v>
       </c>
       <c r="D88" s="37">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="E88" s="37">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F88" s="37">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G88" s="38">
         <v>5325</v>
@@ -4819,13 +4817,13 @@
         <v>9200</v>
       </c>
       <c r="D89" s="37">
-        <v>5458</v>
+        <v>5501</v>
       </c>
       <c r="E89" s="37">
-        <v>4195</v>
+        <v>4217</v>
       </c>
       <c r="F89" s="37">
-        <v>1263</v>
+        <v>1284</v>
       </c>
       <c r="G89" s="38">
         <v>22307</v>
@@ -4854,13 +4852,13 @@
         <v>0</v>
       </c>
       <c r="D90" s="37">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E90" s="37">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F90" s="37">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90" s="38">
         <v>1099</v>
@@ -4889,13 +4887,13 @@
         <v>400</v>
       </c>
       <c r="D91" s="37">
-        <v>1592</v>
+        <v>1619</v>
       </c>
       <c r="E91" s="37">
-        <v>1035</v>
+        <v>1049</v>
       </c>
       <c r="F91" s="37">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="G91" s="38">
         <v>6281</v>
@@ -4924,13 +4922,13 @@
         <v>1900</v>
       </c>
       <c r="D92" s="37">
-        <v>2742</v>
+        <v>2758</v>
       </c>
       <c r="E92" s="37">
-        <v>1845</v>
+        <v>1852</v>
       </c>
       <c r="F92" s="37">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="G92" s="38">
         <v>15937</v>
@@ -4959,13 +4957,13 @@
         <v>1800</v>
       </c>
       <c r="D93" s="37">
-        <v>2632</v>
+        <v>2652</v>
       </c>
       <c r="E93" s="37">
-        <v>1759</v>
+        <v>1775</v>
       </c>
       <c r="F93" s="37">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="G93" s="38">
         <v>16924</v>
@@ -4994,13 +4992,13 @@
         <v>24600</v>
       </c>
       <c r="D94" s="37">
-        <v>16395</v>
+        <v>16717</v>
       </c>
       <c r="E94" s="37">
-        <v>11306</v>
+        <v>11379</v>
       </c>
       <c r="F94" s="37">
-        <v>5089</v>
+        <v>5338</v>
       </c>
       <c r="G94" s="38">
         <v>107521</v>
@@ -5029,13 +5027,13 @@
         <v>29375</v>
       </c>
       <c r="D95" s="37">
-        <v>17199</v>
+        <v>17552</v>
       </c>
       <c r="E95" s="37">
-        <v>12707</v>
+        <v>12833</v>
       </c>
       <c r="F95" s="37">
-        <v>4492</v>
+        <v>4719</v>
       </c>
       <c r="G95" s="38">
         <v>95544</v>
@@ -5064,13 +5062,13 @@
         <v>1700</v>
       </c>
       <c r="D96" s="37">
-        <v>2587</v>
+        <v>2656</v>
       </c>
       <c r="E96" s="37">
-        <v>1851</v>
+        <v>1872</v>
       </c>
       <c r="F96" s="37">
-        <v>736</v>
+        <v>784</v>
       </c>
       <c r="G96" s="38">
         <v>23245</v>
@@ -5099,13 +5097,13 @@
         <v>17425</v>
       </c>
       <c r="D97" s="37">
-        <v>17902</v>
+        <v>18279</v>
       </c>
       <c r="E97" s="37">
-        <v>13090</v>
+        <v>13312</v>
       </c>
       <c r="F97" s="37">
-        <v>4812</v>
+        <v>4967</v>
       </c>
       <c r="G97" s="38">
         <v>130517</v>
@@ -5134,13 +5132,13 @@
         <v>3300</v>
       </c>
       <c r="D98" s="37">
-        <v>4605</v>
+        <v>4643</v>
       </c>
       <c r="E98" s="37">
-        <v>3147</v>
+        <v>3168</v>
       </c>
       <c r="F98" s="37">
-        <v>1458</v>
+        <v>1475</v>
       </c>
       <c r="G98" s="38">
         <v>25476</v>
@@ -5169,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="37">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="E99" s="37">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F99" s="37">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G99" s="38">
         <v>2406</v>
@@ -5204,13 +5202,13 @@
         <v>1800</v>
       </c>
       <c r="D100" s="37">
-        <v>1592</v>
+        <v>1604</v>
       </c>
       <c r="E100" s="37">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="F100" s="37">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="G100" s="38">
         <v>6832</v>
@@ -5239,13 +5237,13 @@
         <v>900</v>
       </c>
       <c r="D101" s="37">
-        <v>894</v>
+        <v>957</v>
       </c>
       <c r="E101" s="37">
         <v>645</v>
       </c>
       <c r="F101" s="37">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="G101" s="38">
         <v>3987</v>
@@ -5274,10 +5272,10 @@
         <v>1200</v>
       </c>
       <c r="D102" s="37">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="E102" s="37">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F102" s="37">
         <v>434</v>
@@ -5309,13 +5307,13 @@
         <v>5900</v>
       </c>
       <c r="D103" s="37">
-        <v>7376</v>
+        <v>7580</v>
       </c>
       <c r="E103" s="37">
-        <v>5458</v>
+        <v>5584</v>
       </c>
       <c r="F103" s="37">
-        <v>1918</v>
+        <v>1996</v>
       </c>
       <c r="G103" s="38">
         <v>45112</v>
@@ -5344,13 +5342,13 @@
         <v>871450</v>
       </c>
       <c r="D104" s="37">
-        <v>626420</v>
+        <v>640414</v>
       </c>
       <c r="E104" s="37">
-        <v>426438</v>
+        <v>435310</v>
       </c>
       <c r="F104" s="37">
-        <v>199982</v>
+        <v>205104</v>
       </c>
       <c r="G104" s="38">
         <v>3601939</v>
@@ -5379,13 +5377,13 @@
         <v>4900</v>
       </c>
       <c r="D105" s="37">
-        <v>5167</v>
+        <v>5238</v>
       </c>
       <c r="E105" s="37">
-        <v>3764</v>
+        <v>3792</v>
       </c>
       <c r="F105" s="37">
-        <v>1403</v>
+        <v>1446</v>
       </c>
       <c r="G105" s="38">
         <v>51900</v>
@@ -5414,13 +5412,13 @@
         <v>1475</v>
       </c>
       <c r="D106" s="37">
-        <v>1490</v>
+        <v>1556</v>
       </c>
       <c r="E106" s="37">
-        <v>988</v>
+        <v>1020</v>
       </c>
       <c r="F106" s="37">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="G106" s="38">
         <v>4561</v>
@@ -5449,10 +5447,10 @@
         <v>600</v>
       </c>
       <c r="D107" s="37">
-        <v>1068</v>
+        <v>1079</v>
       </c>
       <c r="E107" s="37">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="F107" s="37">
         <v>236</v>
@@ -5484,13 +5482,13 @@
         <v>35350</v>
       </c>
       <c r="D108" s="37">
-        <v>28437</v>
+        <v>28653</v>
       </c>
       <c r="E108" s="37">
-        <v>21067</v>
+        <v>21200</v>
       </c>
       <c r="F108" s="37">
-        <v>7370</v>
+        <v>7453</v>
       </c>
       <c r="G108" s="38">
         <v>183380</v>
@@ -5519,13 +5517,13 @@
         <v>1300</v>
       </c>
       <c r="D109" s="37">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E109" s="37">
         <v>634</v>
       </c>
       <c r="F109" s="37">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G109" s="38">
         <v>2827</v>
@@ -5554,13 +5552,13 @@
         <v>5100</v>
       </c>
       <c r="D110" s="37">
-        <v>8260</v>
+        <v>8430</v>
       </c>
       <c r="E110" s="37">
-        <v>5914</v>
+        <v>6014</v>
       </c>
       <c r="F110" s="37">
-        <v>2346</v>
+        <v>2416</v>
       </c>
       <c r="G110" s="38">
         <v>67238</v>
@@ -5589,13 +5587,13 @@
         <v>188750</v>
       </c>
       <c r="D111" s="37">
-        <v>127328</v>
+        <v>134574</v>
       </c>
       <c r="E111" s="37">
-        <v>85513</v>
+        <v>92078</v>
       </c>
       <c r="F111" s="37">
-        <v>41815</v>
+        <v>42496</v>
       </c>
       <c r="G111" s="38">
         <v>620824</v>
@@ -5624,13 +5622,13 @@
         <v>2200</v>
       </c>
       <c r="D112" s="37">
-        <v>4481</v>
+        <v>4516</v>
       </c>
       <c r="E112" s="37">
-        <v>3005</v>
+        <v>3024</v>
       </c>
       <c r="F112" s="37">
-        <v>1476</v>
+        <v>1492</v>
       </c>
       <c r="G112" s="38">
         <v>29198</v>
@@ -5659,13 +5657,13 @@
         <v>1400</v>
       </c>
       <c r="D113" s="37">
-        <v>3752</v>
+        <v>3878</v>
       </c>
       <c r="E113" s="37">
-        <v>2773</v>
+        <v>2854</v>
       </c>
       <c r="F113" s="37">
-        <v>979</v>
+        <v>1024</v>
       </c>
       <c r="G113" s="38">
         <v>17799</v>
@@ -5694,13 +5692,13 @@
         <v>5200</v>
       </c>
       <c r="D114" s="37">
-        <v>8064</v>
+        <v>8226</v>
       </c>
       <c r="E114" s="37">
-        <v>6339</v>
+        <v>6446</v>
       </c>
       <c r="F114" s="37">
-        <v>1725</v>
+        <v>1780</v>
       </c>
       <c r="G114" s="38">
         <v>50193</v>
@@ -5729,13 +5727,13 @@
         <v>3800</v>
       </c>
       <c r="D115" s="37">
-        <v>3449</v>
+        <v>3899</v>
       </c>
       <c r="E115" s="37">
-        <v>2572</v>
+        <v>2593</v>
       </c>
       <c r="F115" s="37">
-        <v>877</v>
+        <v>1306</v>
       </c>
       <c r="G115" s="38">
         <v>29175</v>
@@ -5764,13 +5762,13 @@
         <v>2100</v>
       </c>
       <c r="D116" s="37">
-        <v>2207</v>
+        <v>2239</v>
       </c>
       <c r="E116" s="37">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="F116" s="37">
-        <v>821</v>
+        <v>856</v>
       </c>
       <c r="G116" s="38">
         <v>18929</v>
@@ -5799,13 +5797,13 @@
         <v>3500</v>
       </c>
       <c r="D117" s="37">
-        <v>3108</v>
+        <v>3294</v>
       </c>
       <c r="E117" s="37">
-        <v>1989</v>
+        <v>2141</v>
       </c>
       <c r="F117" s="37">
-        <v>1119</v>
+        <v>1153</v>
       </c>
       <c r="G117" s="38">
         <v>29544</v>
@@ -5834,13 +5832,13 @@
         <v>300</v>
       </c>
       <c r="D118" s="37">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="E118" s="37">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="F118" s="37">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G118" s="38">
         <v>3979</v>
@@ -5869,13 +5867,13 @@
         <v>8750</v>
       </c>
       <c r="D119" s="37">
-        <v>10191</v>
+        <v>10270</v>
       </c>
       <c r="E119" s="37">
-        <v>6643</v>
+        <v>6659</v>
       </c>
       <c r="F119" s="37">
-        <v>3548</v>
+        <v>3611</v>
       </c>
       <c r="G119" s="38">
         <v>77878</v>
@@ -5904,13 +5902,13 @@
         <v>1000</v>
       </c>
       <c r="D120" s="37">
-        <v>2660</v>
+        <v>2709</v>
       </c>
       <c r="E120" s="37">
-        <v>1904</v>
+        <v>1916</v>
       </c>
       <c r="F120" s="37">
-        <v>756</v>
+        <v>793</v>
       </c>
       <c r="G120" s="38">
         <v>16258</v>
@@ -5939,13 +5937,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="37">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E121" s="37">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F121" s="37">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G121" s="38">
         <v>1234</v>
@@ -5974,13 +5972,13 @@
         <v>1200</v>
       </c>
       <c r="D122" s="37">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="E122" s="37">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F122" s="37">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G122" s="38">
         <v>7230</v>
@@ -6009,13 +6007,13 @@
         <v>4450</v>
       </c>
       <c r="D123" s="37">
-        <v>2807</v>
+        <v>2906</v>
       </c>
       <c r="E123" s="37">
-        <v>2028</v>
+        <v>2034</v>
       </c>
       <c r="F123" s="37">
-        <v>779</v>
+        <v>872</v>
       </c>
       <c r="G123" s="38">
         <v>11425</v>
@@ -6044,13 +6042,13 @@
         <v>8800</v>
       </c>
       <c r="D124" s="37">
-        <v>5144</v>
+        <v>5401</v>
       </c>
       <c r="E124" s="37">
-        <v>4406</v>
+        <v>4459</v>
       </c>
       <c r="F124" s="37">
-        <v>738</v>
+        <v>942</v>
       </c>
       <c r="G124" s="38">
         <v>28056</v>
@@ -6079,13 +6077,13 @@
         <v>200</v>
       </c>
       <c r="D125" s="37">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E125" s="37">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="F125" s="37">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G125" s="38">
         <v>2180</v>
@@ -6114,13 +6112,13 @@
         <v>55150</v>
       </c>
       <c r="D126" s="37">
-        <v>26499</v>
+        <v>28141</v>
       </c>
       <c r="E126" s="37">
-        <v>20019</v>
+        <v>20865</v>
       </c>
       <c r="F126" s="37">
-        <v>6480</v>
+        <v>7276</v>
       </c>
       <c r="G126" s="38">
         <v>197382</v>
@@ -6149,13 +6147,13 @@
         <v>400</v>
       </c>
       <c r="D127" s="37">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="E127" s="37">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="F127" s="37">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G127" s="38">
         <v>3791</v>
@@ -6184,13 +6182,13 @@
         <v>8925</v>
       </c>
       <c r="D128" s="37">
-        <v>9168</v>
+        <v>9355</v>
       </c>
       <c r="E128" s="37">
-        <v>6556</v>
+        <v>6673</v>
       </c>
       <c r="F128" s="37">
-        <v>2612</v>
+        <v>2682</v>
       </c>
       <c r="G128" s="38">
         <v>30579</v>
@@ -6219,13 +6217,13 @@
         <v>11600</v>
       </c>
       <c r="D129" s="37">
-        <v>16758</v>
+        <v>17112</v>
       </c>
       <c r="E129" s="37">
-        <v>11306</v>
+        <v>11480</v>
       </c>
       <c r="F129" s="37">
-        <v>5452</v>
+        <v>5632</v>
       </c>
       <c r="G129" s="38">
         <v>135345</v>
@@ -6254,13 +6252,13 @@
         <v>700</v>
       </c>
       <c r="D130" s="37">
-        <v>1732</v>
+        <v>1760</v>
       </c>
       <c r="E130" s="37">
-        <v>1301</v>
+        <v>1320</v>
       </c>
       <c r="F130" s="37">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="G130" s="38">
         <v>17011</v>
@@ -6289,13 +6287,13 @@
         <v>2500</v>
       </c>
       <c r="D131" s="37">
-        <v>1858</v>
+        <v>1891</v>
       </c>
       <c r="E131" s="37">
-        <v>1385</v>
+        <v>1394</v>
       </c>
       <c r="F131" s="37">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="G131" s="38">
         <v>12669</v>
@@ -6324,13 +6322,13 @@
         <v>6750</v>
       </c>
       <c r="D132" s="37">
-        <v>14830</v>
+        <v>14985</v>
       </c>
       <c r="E132" s="37">
-        <v>10106</v>
+        <v>10188</v>
       </c>
       <c r="F132" s="37">
-        <v>4724</v>
+        <v>4797</v>
       </c>
       <c r="G132" s="38">
         <v>102341</v>
@@ -6359,13 +6357,13 @@
         <v>3000</v>
       </c>
       <c r="D133" s="37">
-        <v>6954</v>
+        <v>7528</v>
       </c>
       <c r="E133" s="37">
-        <v>5075</v>
+        <v>5558</v>
       </c>
       <c r="F133" s="37">
-        <v>1879</v>
+        <v>1970</v>
       </c>
       <c r="G133" s="38">
         <v>37890</v>
@@ -6394,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="D134" s="37">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E134" s="37">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F134" s="37">
         <v>8</v>
@@ -6432,10 +6430,10 @@
         <v>188</v>
       </c>
       <c r="E135" s="37">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F135" s="37">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G135" s="38">
         <v>615</v>
@@ -6464,13 +6462,13 @@
         <v>5400</v>
       </c>
       <c r="D136" s="37">
-        <v>6116</v>
+        <v>6244</v>
       </c>
       <c r="E136" s="37">
-        <v>4664</v>
+        <v>4705</v>
       </c>
       <c r="F136" s="37">
-        <v>1452</v>
+        <v>1539</v>
       </c>
       <c r="G136" s="38">
         <v>43793</v>
@@ -6499,13 +6497,13 @@
         <v>700</v>
       </c>
       <c r="D137" s="37">
-        <v>699</v>
+        <v>767</v>
       </c>
       <c r="E137" s="37">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="F137" s="37">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="G137" s="38">
         <v>3651</v>
@@ -6569,13 +6567,13 @@
         <v>200</v>
       </c>
       <c r="D139" s="37">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E139" s="37">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F139" s="37">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G139" s="38">
         <v>3050</v>
@@ -6604,13 +6602,13 @@
         <v>14325</v>
       </c>
       <c r="D140" s="37">
-        <v>8150</v>
+        <v>8232</v>
       </c>
       <c r="E140" s="37">
-        <v>7053</v>
+        <v>7103</v>
       </c>
       <c r="F140" s="37">
-        <v>1097</v>
+        <v>1129</v>
       </c>
       <c r="G140" s="38">
         <v>24188</v>
@@ -6639,13 +6637,13 @@
         <v>700</v>
       </c>
       <c r="D141" s="37">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="E141" s="37">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F141" s="37">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G141" s="38">
         <v>2808</v>
@@ -6677,10 +6675,10 @@
         <v>2557</v>
       </c>
       <c r="E142" s="37">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="F142" s="37">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G142" s="38">
         <v>6212</v>
@@ -6709,13 +6707,13 @@
         <v>8000</v>
       </c>
       <c r="D143" s="37">
-        <v>7065</v>
+        <v>7258</v>
       </c>
       <c r="E143" s="37">
-        <v>5438</v>
+        <v>5478</v>
       </c>
       <c r="F143" s="37">
-        <v>1627</v>
+        <v>1780</v>
       </c>
       <c r="G143" s="38">
         <v>39402</v>
@@ -6744,13 +6742,13 @@
         <v>600</v>
       </c>
       <c r="D144" s="37">
-        <v>2715</v>
+        <v>2782</v>
       </c>
       <c r="E144" s="37">
-        <v>1762</v>
+        <v>1805</v>
       </c>
       <c r="F144" s="37">
-        <v>953</v>
+        <v>977</v>
       </c>
       <c r="G144" s="38">
         <v>9740</v>
@@ -6779,13 +6777,13 @@
         <v>900</v>
       </c>
       <c r="D145" s="37">
-        <v>1938</v>
+        <v>1997</v>
       </c>
       <c r="E145" s="37">
-        <v>1503</v>
+        <v>1531</v>
       </c>
       <c r="F145" s="37">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="G145" s="38">
         <v>17366</v>
@@ -6814,13 +6812,13 @@
         <v>2300</v>
       </c>
       <c r="D146" s="37">
-        <v>3024</v>
+        <v>3034</v>
       </c>
       <c r="E146" s="37">
-        <v>1885</v>
+        <v>1891</v>
       </c>
       <c r="F146" s="37">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="G146" s="38">
         <v>16004</v>
@@ -6849,13 +6847,13 @@
         <v>800</v>
       </c>
       <c r="D147" s="37">
-        <v>1562</v>
+        <v>1592</v>
       </c>
       <c r="E147" s="37">
-        <v>1115</v>
+        <v>1125</v>
       </c>
       <c r="F147" s="37">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="G147" s="38">
         <v>13993</v>
@@ -6884,13 +6882,13 @@
         <v>1000</v>
       </c>
       <c r="D148" s="37">
-        <v>1218</v>
+        <v>1233</v>
       </c>
       <c r="E148" s="37">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="F148" s="37">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="G148" s="38">
         <v>13946</v>
@@ -6919,13 +6917,13 @@
         <v>11125</v>
       </c>
       <c r="D149" s="37">
-        <v>6049</v>
+        <v>6124</v>
       </c>
       <c r="E149" s="37">
-        <v>3997</v>
+        <v>4045</v>
       </c>
       <c r="F149" s="37">
-        <v>2052</v>
+        <v>2079</v>
       </c>
       <c r="G149" s="38">
         <v>66868</v>
@@ -6954,13 +6952,13 @@
         <v>2600</v>
       </c>
       <c r="D150" s="37">
-        <v>2073</v>
+        <v>2088</v>
       </c>
       <c r="E150" s="37">
-        <v>1384</v>
+        <v>1392</v>
       </c>
       <c r="F150" s="37">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="G150" s="38">
         <v>18871</v>
@@ -6989,10 +6987,10 @@
         <v>200</v>
       </c>
       <c r="D151" s="37">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E151" s="37">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F151" s="37">
         <v>164</v>
@@ -7024,13 +7022,13 @@
         <v>400</v>
       </c>
       <c r="D152" s="37">
-        <v>1605</v>
+        <v>1613</v>
       </c>
       <c r="E152" s="37">
-        <v>1177</v>
+        <v>1183</v>
       </c>
       <c r="F152" s="37">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G152" s="38">
         <v>10055</v>
@@ -7059,13 +7057,13 @@
         <v>1400</v>
       </c>
       <c r="D153" s="37">
-        <v>3028</v>
+        <v>3036</v>
       </c>
       <c r="E153" s="37">
-        <v>2503</v>
+        <v>2506</v>
       </c>
       <c r="F153" s="37">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="G153" s="38">
         <v>18908</v>
@@ -7094,13 +7092,13 @@
         <v>0</v>
       </c>
       <c r="D154" s="37">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E154" s="37">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F154" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G154" s="38">
         <v>129</v>
@@ -7129,13 +7127,13 @@
         <v>105500</v>
       </c>
       <c r="D155" s="37">
-        <v>80256</v>
+        <v>81958</v>
       </c>
       <c r="E155" s="37">
-        <v>54936</v>
+        <v>55723</v>
       </c>
       <c r="F155" s="37">
-        <v>25320</v>
+        <v>26235</v>
       </c>
       <c r="G155" s="38">
         <v>244992</v>
@@ -7164,13 +7162,13 @@
         <v>400</v>
       </c>
       <c r="D156" s="37">
-        <v>1189</v>
+        <v>1218</v>
       </c>
       <c r="E156" s="37">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="F156" s="37">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="G156" s="38">
         <v>4496</v>
@@ -7199,13 +7197,13 @@
         <v>1000</v>
       </c>
       <c r="D157" s="37">
-        <v>945</v>
+        <v>968</v>
       </c>
       <c r="E157" s="37">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="F157" s="37">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="G157" s="38">
         <v>11595</v>
@@ -7234,13 +7232,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="37">
-        <v>703</v>
+        <v>732</v>
       </c>
       <c r="E158" s="37">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="F158" s="37">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G158" s="38">
         <v>8277</v>
@@ -7269,13 +7267,13 @@
         <v>800</v>
       </c>
       <c r="D159" s="37">
-        <v>1185</v>
+        <v>1199</v>
       </c>
       <c r="E159" s="37">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="F159" s="37">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="G159" s="38">
         <v>4136</v>
@@ -7304,13 +7302,13 @@
         <v>500</v>
       </c>
       <c r="D160" s="37">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="E160" s="37">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="F160" s="37">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G160" s="38">
         <v>3521</v>
@@ -7339,13 +7337,13 @@
         <v>3000</v>
       </c>
       <c r="D161" s="37">
-        <v>2967</v>
+        <v>3005</v>
       </c>
       <c r="E161" s="37">
-        <v>2018</v>
+        <v>2033</v>
       </c>
       <c r="F161" s="37">
-        <v>949</v>
+        <v>972</v>
       </c>
       <c r="G161" s="38">
         <v>28247</v>
@@ -7374,13 +7372,13 @@
         <v>11000</v>
       </c>
       <c r="D162" s="37">
-        <v>5403</v>
+        <v>5496</v>
       </c>
       <c r="E162" s="37">
-        <v>4341</v>
+        <v>4424</v>
       </c>
       <c r="F162" s="37">
-        <v>1062</v>
+        <v>1072</v>
       </c>
       <c r="G162" s="38">
         <v>42606</v>
@@ -7409,13 +7407,13 @@
         <v>1300</v>
       </c>
       <c r="D163" s="37">
-        <v>922</v>
+        <v>973</v>
       </c>
       <c r="E163" s="37">
-        <v>764</v>
+        <v>801</v>
       </c>
       <c r="F163" s="37">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G163" s="38">
         <v>6435</v>
@@ -7444,13 +7442,13 @@
         <v>44050</v>
       </c>
       <c r="D164" s="37">
-        <v>32960</v>
+        <v>34096</v>
       </c>
       <c r="E164" s="37">
-        <v>24099</v>
+        <v>24275</v>
       </c>
       <c r="F164" s="37">
-        <v>8861</v>
+        <v>9821</v>
       </c>
       <c r="G164" s="38">
         <v>200781</v>
@@ -7479,10 +7477,10 @@
         <v>100</v>
       </c>
       <c r="D165" s="37">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E165" s="37">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F165" s="37">
         <v>7</v>
@@ -7514,13 +7512,13 @@
         <v>2700</v>
       </c>
       <c r="D166" s="37">
-        <v>6425</v>
+        <v>6527</v>
       </c>
       <c r="E166" s="37">
-        <v>4652</v>
+        <v>4717</v>
       </c>
       <c r="F166" s="37">
-        <v>1773</v>
+        <v>1810</v>
       </c>
       <c r="G166" s="38">
         <v>41263</v>
@@ -7549,13 +7547,13 @@
         <v>200</v>
       </c>
       <c r="D167" s="37">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="E167" s="37">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F167" s="37">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G167" s="38">
         <v>1790</v>
@@ -7584,13 +7582,13 @@
         <v>42325</v>
       </c>
       <c r="D168" s="37">
-        <v>29435</v>
+        <v>31014</v>
       </c>
       <c r="E168" s="37">
-        <v>23083</v>
+        <v>23651</v>
       </c>
       <c r="F168" s="37">
-        <v>6352</v>
+        <v>7363</v>
       </c>
       <c r="G168" s="38">
         <v>131025</v>
@@ -7619,13 +7617,13 @@
         <v>2900</v>
       </c>
       <c r="D169" s="37">
-        <v>3291</v>
+        <v>3305</v>
       </c>
       <c r="E169" s="37">
-        <v>2132</v>
+        <v>2140</v>
       </c>
       <c r="F169" s="37">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="G169" s="38">
         <v>19689</v>
@@ -7654,13 +7652,13 @@
         <v>300</v>
       </c>
       <c r="D170" s="37">
-        <v>878</v>
+        <v>922</v>
       </c>
       <c r="E170" s="37">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="F170" s="37">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="G170" s="38">
         <v>4006</v>
@@ -7689,13 +7687,13 @@
         <v>1000</v>
       </c>
       <c r="D171" s="37">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="E171" s="37">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F171" s="37">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G171" s="38">
         <v>6958</v>
@@ -7724,13 +7722,13 @@
         <v>2550</v>
       </c>
       <c r="D172" s="37">
-        <v>3273</v>
+        <v>3275</v>
       </c>
       <c r="E172" s="37">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="F172" s="37">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G172" s="38">
         <v>15872</v>
@@ -7759,13 +7757,13 @@
         <v>84900</v>
       </c>
       <c r="D173" s="37">
-        <v>71545</v>
+        <v>73811</v>
       </c>
       <c r="E173" s="37">
-        <v>48955</v>
+        <v>50450</v>
       </c>
       <c r="F173" s="37">
-        <v>22590</v>
+        <v>23361</v>
       </c>
       <c r="G173" s="38">
         <v>467232</v>
@@ -7794,13 +7792,13 @@
         <v>1500</v>
       </c>
       <c r="D174" s="37">
-        <v>5034</v>
+        <v>5051</v>
       </c>
       <c r="E174" s="37">
-        <v>4020</v>
+        <v>4032</v>
       </c>
       <c r="F174" s="37">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="G174" s="38">
         <v>14986</v>
@@ -7829,13 +7827,13 @@
         <v>700</v>
       </c>
       <c r="D175" s="37">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="E175" s="37">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F175" s="37">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G175" s="38">
         <v>9830</v>
@@ -7864,13 +7862,13 @@
         <v>0</v>
       </c>
       <c r="D176" s="37">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E176" s="37">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F176" s="37">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G176" s="38">
         <v>994</v>
@@ -7899,13 +7897,13 @@
         <v>10500</v>
       </c>
       <c r="D177" s="37">
-        <v>10219</v>
+        <v>10222</v>
       </c>
       <c r="E177" s="37">
-        <v>6514</v>
+        <v>6512</v>
       </c>
       <c r="F177" s="37">
-        <v>3705</v>
+        <v>3710</v>
       </c>
       <c r="G177" s="38">
         <v>51773</v>
@@ -7934,13 +7932,13 @@
         <v>9200</v>
       </c>
       <c r="D178" s="37">
-        <v>7920</v>
+        <v>7978</v>
       </c>
       <c r="E178" s="37">
-        <v>6643</v>
+        <v>6669</v>
       </c>
       <c r="F178" s="37">
-        <v>1277</v>
+        <v>1309</v>
       </c>
       <c r="G178" s="38">
         <v>38360</v>
@@ -7969,13 +7967,13 @@
         <v>900</v>
       </c>
       <c r="D179" s="37">
-        <v>1525</v>
+        <v>1605</v>
       </c>
       <c r="E179" s="37">
-        <v>1298</v>
+        <v>1304</v>
       </c>
       <c r="F179" s="37">
-        <v>227</v>
+        <v>301</v>
       </c>
       <c r="G179" s="38">
         <v>11298</v>
@@ -8004,13 +8002,13 @@
         <v>3200</v>
       </c>
       <c r="D180" s="37">
-        <v>2446</v>
+        <v>2489</v>
       </c>
       <c r="E180" s="37">
-        <v>1713</v>
+        <v>1720</v>
       </c>
       <c r="F180" s="37">
-        <v>733</v>
+        <v>769</v>
       </c>
       <c r="G180" s="38">
         <v>11321</v>
@@ -8039,13 +8037,13 @@
         <v>85175</v>
       </c>
       <c r="D181" s="37">
-        <v>49949</v>
+        <v>52783</v>
       </c>
       <c r="E181" s="37">
-        <v>31810</v>
+        <v>33656</v>
       </c>
       <c r="F181" s="37">
-        <v>18139</v>
+        <v>19127</v>
       </c>
       <c r="G181" s="38">
         <v>284366</v>
@@ -8074,10 +8072,10 @@
         <v>1500</v>
       </c>
       <c r="D182" s="37">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="E182" s="37">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F182" s="37">
         <v>493</v>
@@ -8109,13 +8107,13 @@
         <v>300</v>
       </c>
       <c r="D183" s="37">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E183" s="37">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F183" s="37">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G183" s="38">
         <v>1728</v>
@@ -8144,13 +8142,13 @@
         <v>2000</v>
       </c>
       <c r="D184" s="37">
-        <v>6674</v>
+        <v>7007</v>
       </c>
       <c r="E184" s="37">
-        <v>5468</v>
+        <v>5700</v>
       </c>
       <c r="F184" s="37">
-        <v>1206</v>
+        <v>1307</v>
       </c>
       <c r="G184" s="38">
         <v>65087</v>
@@ -8179,13 +8177,13 @@
         <v>2200</v>
       </c>
       <c r="D185" s="37">
-        <v>2237</v>
+        <v>2257</v>
       </c>
       <c r="E185" s="37">
-        <v>1600</v>
+        <v>1611</v>
       </c>
       <c r="F185" s="37">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="G185" s="38">
         <v>23207</v>
@@ -8214,13 +8212,13 @@
         <v>1700</v>
       </c>
       <c r="D186" s="37">
-        <v>1858</v>
+        <v>1879</v>
       </c>
       <c r="E186" s="37">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="F186" s="37">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="G186" s="38">
         <v>18462</v>
@@ -8249,13 +8247,13 @@
         <v>19250</v>
       </c>
       <c r="D187" s="37">
-        <v>19083</v>
+        <v>19450</v>
       </c>
       <c r="E187" s="37">
-        <v>13215</v>
+        <v>13414</v>
       </c>
       <c r="F187" s="37">
-        <v>5868</v>
+        <v>6036</v>
       </c>
       <c r="G187" s="38">
         <v>111686</v>
@@ -8284,13 +8282,13 @@
         <v>900</v>
       </c>
       <c r="D188" s="37">
-        <v>2024</v>
+        <v>2050</v>
       </c>
       <c r="E188" s="37">
-        <v>1379</v>
+        <v>1394</v>
       </c>
       <c r="F188" s="37">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="G188" s="38">
         <v>7222</v>
@@ -8319,13 +8317,13 @@
         <v>2000</v>
       </c>
       <c r="D189" s="37">
-        <v>3028</v>
+        <v>3039</v>
       </c>
       <c r="E189" s="37">
-        <v>2427</v>
+        <v>2435</v>
       </c>
       <c r="F189" s="37">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="G189" s="38">
         <v>12317</v>
@@ -8354,13 +8352,13 @@
         <v>4300</v>
       </c>
       <c r="D190" s="37">
-        <v>6523</v>
+        <v>6614</v>
       </c>
       <c r="E190" s="37">
-        <v>4869</v>
+        <v>4909</v>
       </c>
       <c r="F190" s="37">
-        <v>1654</v>
+        <v>1705</v>
       </c>
       <c r="G190" s="38">
         <v>42276</v>
@@ -8389,13 +8387,13 @@
         <v>89325</v>
       </c>
       <c r="D191" s="37">
-        <v>27278</v>
+        <v>27335</v>
       </c>
       <c r="E191" s="37">
-        <v>17457</v>
+        <v>17473</v>
       </c>
       <c r="F191" s="37">
-        <v>9821</v>
+        <v>9862</v>
       </c>
       <c r="G191" s="38">
         <v>88673</v>
@@ -8424,13 +8422,13 @@
         <v>1500</v>
       </c>
       <c r="D192" s="37">
-        <v>1774</v>
+        <v>1787</v>
       </c>
       <c r="E192" s="37">
-        <v>1556</v>
+        <v>1566</v>
       </c>
       <c r="F192" s="37">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G192" s="38">
         <v>5069</v>
@@ -8459,13 +8457,13 @@
         <v>500</v>
       </c>
       <c r="D193" s="37">
-        <v>1062</v>
+        <v>1088</v>
       </c>
       <c r="E193" s="37">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="F193" s="37">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="G193" s="38">
         <v>10277</v>
@@ -8494,13 +8492,13 @@
         <v>6200</v>
       </c>
       <c r="D194" s="37">
-        <v>41296</v>
+        <v>41465</v>
       </c>
       <c r="E194" s="37">
-        <v>25841</v>
+        <v>25912</v>
       </c>
       <c r="F194" s="37">
-        <v>15455</v>
+        <v>15553</v>
       </c>
       <c r="G194" s="38">
         <v>108431</v>
@@ -8529,13 +8527,13 @@
         <v>300</v>
       </c>
       <c r="D195" s="37">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E195" s="37">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F195" s="37">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G195" s="38">
         <v>2841</v>
@@ -8564,13 +8562,13 @@
         <v>200</v>
       </c>
       <c r="D196" s="37">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="E196" s="37">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F196" s="37">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G196" s="38">
         <v>2943</v>
@@ -8599,13 +8597,13 @@
         <v>900</v>
       </c>
       <c r="D197" s="37">
-        <v>1739</v>
+        <v>1763</v>
       </c>
       <c r="E197" s="37">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="F197" s="37">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="G197" s="38">
         <v>9965</v>
@@ -8634,10 +8632,10 @@
         <v>7725</v>
       </c>
       <c r="D198" s="37">
-        <v>4517</v>
+        <v>4516</v>
       </c>
       <c r="E198" s="37">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="F198" s="37">
         <v>1386</v>
@@ -8672,10 +8670,10 @@
         <v>1364</v>
       </c>
       <c r="E199" s="37">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F199" s="37">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G199" s="38">
         <v>5583</v>
@@ -8704,10 +8702,10 @@
         <v>0</v>
       </c>
       <c r="D200" s="37">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E200" s="37">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F200" s="37">
         <v>48</v>
@@ -8739,13 +8737,13 @@
         <v>1200</v>
       </c>
       <c r="D201" s="37">
-        <v>1870</v>
+        <v>1905</v>
       </c>
       <c r="E201" s="37">
-        <v>1399</v>
+        <v>1411</v>
       </c>
       <c r="F201" s="37">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="G201" s="38">
         <v>13474</v>
@@ -8774,13 +8772,13 @@
         <v>8175</v>
       </c>
       <c r="D202" s="37">
-        <v>15975</v>
+        <v>16159</v>
       </c>
       <c r="E202" s="37">
-        <v>11633</v>
+        <v>11726</v>
       </c>
       <c r="F202" s="37">
-        <v>4342</v>
+        <v>4433</v>
       </c>
       <c r="G202" s="38">
         <v>80325</v>
@@ -8809,13 +8807,13 @@
         <v>1800</v>
       </c>
       <c r="D203" s="37">
-        <v>1788</v>
+        <v>1819</v>
       </c>
       <c r="E203" s="37">
-        <v>1166</v>
+        <v>1191</v>
       </c>
       <c r="F203" s="37">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="G203" s="38">
         <v>8184</v>
@@ -8844,13 +8842,13 @@
         <v>2000</v>
       </c>
       <c r="D204" s="37">
-        <v>4540</v>
+        <v>4704</v>
       </c>
       <c r="E204" s="37">
-        <v>3362</v>
+        <v>3430</v>
       </c>
       <c r="F204" s="37">
-        <v>1178</v>
+        <v>1274</v>
       </c>
       <c r="G204" s="38">
         <v>43777</v>
@@ -8879,13 +8877,13 @@
         <v>1600</v>
       </c>
       <c r="D205" s="37">
-        <v>1757</v>
+        <v>1865</v>
       </c>
       <c r="E205" s="37">
-        <v>1283</v>
+        <v>1302</v>
       </c>
       <c r="F205" s="37">
-        <v>474</v>
+        <v>563</v>
       </c>
       <c r="G205" s="38">
         <v>8871</v>
@@ -8914,13 +8912,13 @@
         <v>1200</v>
       </c>
       <c r="D206" s="37">
-        <v>1242</v>
+        <v>1255</v>
       </c>
       <c r="E206" s="37">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F206" s="37">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="G206" s="38">
         <v>6811</v>
@@ -8949,13 +8947,13 @@
         <v>1800</v>
       </c>
       <c r="D207" s="37">
-        <v>2554</v>
+        <v>2610</v>
       </c>
       <c r="E207" s="37">
-        <v>1808</v>
+        <v>1847</v>
       </c>
       <c r="F207" s="37">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="G207" s="38">
         <v>23444</v>
@@ -8984,13 +8982,13 @@
         <v>4200</v>
       </c>
       <c r="D208" s="37">
-        <v>8326</v>
+        <v>8556</v>
       </c>
       <c r="E208" s="37">
-        <v>6063</v>
+        <v>6217</v>
       </c>
       <c r="F208" s="37">
-        <v>2263</v>
+        <v>2339</v>
       </c>
       <c r="G208" s="38">
         <v>51116</v>
@@ -9054,13 +9052,13 @@
         <v>400</v>
       </c>
       <c r="D210" s="37">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="E210" s="37">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="F210" s="37">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G210" s="38">
         <v>2218</v>
@@ -9089,13 +9087,13 @@
         <v>3925</v>
       </c>
       <c r="D211" s="37">
-        <v>2213</v>
+        <v>2296</v>
       </c>
       <c r="E211" s="37">
-        <v>1528</v>
+        <v>1585</v>
       </c>
       <c r="F211" s="37">
-        <v>685</v>
+        <v>711</v>
       </c>
       <c r="G211" s="38">
         <v>13000</v>
@@ -9124,10 +9122,10 @@
         <v>300</v>
       </c>
       <c r="D212" s="37">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="E212" s="37">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="F212" s="37">
         <v>57</v>
@@ -9159,13 +9157,13 @@
         <v>1700</v>
       </c>
       <c r="D213" s="37">
-        <v>1742</v>
+        <v>1758</v>
       </c>
       <c r="E213" s="37">
-        <v>1107</v>
+        <v>1119</v>
       </c>
       <c r="F213" s="37">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="G213" s="38">
         <v>19449</v>
@@ -9194,13 +9192,13 @@
         <v>500</v>
       </c>
       <c r="D214" s="37">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E214" s="37">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F214" s="37">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G214" s="38">
         <v>2294</v>
@@ -9229,13 +9227,13 @@
         <v>74400</v>
       </c>
       <c r="D215" s="37">
-        <v>38680</v>
+        <v>39683</v>
       </c>
       <c r="E215" s="37">
-        <v>26088</v>
+        <v>26266</v>
       </c>
       <c r="F215" s="37">
-        <v>12592</v>
+        <v>13417</v>
       </c>
       <c r="G215" s="38">
         <v>182283</v>
@@ -9264,13 +9262,13 @@
         <v>600</v>
       </c>
       <c r="D216" s="37">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="E216" s="37">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="F216" s="37">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G216" s="38">
         <v>7386</v>
@@ -9299,13 +9297,13 @@
         <v>8000</v>
       </c>
       <c r="D217" s="37">
-        <v>8041</v>
+        <v>8177</v>
       </c>
       <c r="E217" s="37">
-        <v>5887</v>
+        <v>6012</v>
       </c>
       <c r="F217" s="37">
-        <v>2154</v>
+        <v>2165</v>
       </c>
       <c r="G217" s="38">
         <v>45765</v>
@@ -9334,13 +9332,13 @@
         <v>900</v>
       </c>
       <c r="D218" s="37">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="E218" s="37">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="F218" s="37">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G218" s="38">
         <v>7542</v>
@@ -9369,13 +9367,13 @@
         <v>100</v>
       </c>
       <c r="D219" s="37">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E219" s="37">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F219" s="37">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G219" s="38">
         <v>975</v>
@@ -9404,13 +9402,13 @@
         <v>500</v>
       </c>
       <c r="D220" s="37">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E220" s="37">
         <v>245</v>
       </c>
       <c r="F220" s="37">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G220" s="38">
         <v>1095</v>
@@ -9439,13 +9437,13 @@
         <v>400</v>
       </c>
       <c r="D221" s="37">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="E221" s="37">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F221" s="37">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G221" s="38">
         <v>2992</v>
@@ -9474,13 +9472,13 @@
         <v>500</v>
       </c>
       <c r="D222" s="37">
-        <v>1296</v>
+        <v>1308</v>
       </c>
       <c r="E222" s="37">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="F222" s="37">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G222" s="38">
         <v>5764</v>
@@ -9509,13 +9507,13 @@
         <v>440250</v>
       </c>
       <c r="D223" s="37">
-        <v>275321</v>
+        <v>283075</v>
       </c>
       <c r="E223" s="37">
-        <v>180391</v>
+        <v>184919</v>
       </c>
       <c r="F223" s="37">
-        <v>94930</v>
+        <v>98156</v>
       </c>
       <c r="G223" s="38">
         <v>1617160</v>
@@ -9544,13 +9542,13 @@
         <v>30525</v>
       </c>
       <c r="D224" s="37">
-        <v>24150</v>
+        <v>24247</v>
       </c>
       <c r="E224" s="37">
-        <v>17870</v>
+        <v>17913</v>
       </c>
       <c r="F224" s="37">
-        <v>6280</v>
+        <v>6334</v>
       </c>
       <c r="G224" s="38">
         <v>107257</v>
@@ -9579,10 +9577,10 @@
         <v>0</v>
       </c>
       <c r="D225" s="37">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E225" s="37">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F225" s="37">
         <v>14</v>
@@ -9614,13 +9612,13 @@
         <v>3650</v>
       </c>
       <c r="D226" s="37">
-        <v>2847</v>
+        <v>2862</v>
       </c>
       <c r="E226" s="37">
-        <v>1964</v>
+        <v>1972</v>
       </c>
       <c r="F226" s="37">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="G226" s="38">
         <v>9307</v>
@@ -9649,13 +9647,13 @@
         <v>600</v>
       </c>
       <c r="D227" s="37">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E227" s="37">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F227" s="37">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G227" s="38">
         <v>1247</v>
@@ -9684,13 +9682,13 @@
         <v>5200</v>
       </c>
       <c r="D228" s="37">
-        <v>2956</v>
+        <v>2972</v>
       </c>
       <c r="E228" s="37">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="F228" s="37">
-        <v>976</v>
+        <v>989</v>
       </c>
       <c r="G228" s="38">
         <v>24323</v>
@@ -9719,13 +9717,13 @@
         <v>28400</v>
       </c>
       <c r="D229" s="37">
-        <v>23581</v>
+        <v>24162</v>
       </c>
       <c r="E229" s="37">
-        <v>15760</v>
+        <v>16124</v>
       </c>
       <c r="F229" s="37">
-        <v>7821</v>
+        <v>8038</v>
       </c>
       <c r="G229" s="38">
         <v>93752</v>
@@ -9754,13 +9752,13 @@
         <v>242000</v>
       </c>
       <c r="D230" s="37">
-        <v>157579</v>
+        <v>158358</v>
       </c>
       <c r="E230" s="37">
-        <v>109252</v>
+        <v>109778</v>
       </c>
       <c r="F230" s="37">
-        <v>48327</v>
+        <v>48580</v>
       </c>
       <c r="G230" s="38">
         <v>1032386</v>
@@ -9789,13 +9787,13 @@
         <v>2850</v>
       </c>
       <c r="D231" s="37">
-        <v>2179</v>
+        <v>2208</v>
       </c>
       <c r="E231" s="37">
-        <v>1604</v>
+        <v>1627</v>
       </c>
       <c r="F231" s="37">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="G231" s="38">
         <v>12104</v>
@@ -9824,13 +9822,13 @@
         <v>2900</v>
       </c>
       <c r="D232" s="37">
-        <v>3177</v>
+        <v>3221</v>
       </c>
       <c r="E232" s="37">
-        <v>2266</v>
+        <v>2277</v>
       </c>
       <c r="F232" s="37">
-        <v>911</v>
+        <v>944</v>
       </c>
       <c r="G232" s="38">
         <v>17963</v>
@@ -9859,13 +9857,13 @@
         <v>1600</v>
       </c>
       <c r="D233" s="37">
-        <v>3392</v>
+        <v>3449</v>
       </c>
       <c r="E233" s="37">
-        <v>2463</v>
+        <v>2487</v>
       </c>
       <c r="F233" s="37">
-        <v>929</v>
+        <v>962</v>
       </c>
       <c r="G233" s="38">
         <v>33011</v>
@@ -9894,13 +9892,13 @@
         <v>500</v>
       </c>
       <c r="D234" s="37">
-        <v>850</v>
+        <v>866</v>
       </c>
       <c r="E234" s="37">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="F234" s="37">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G234" s="38">
         <v>2730</v>
@@ -9929,13 +9927,13 @@
         <v>9325</v>
       </c>
       <c r="D235" s="37">
-        <v>5842</v>
+        <v>5855</v>
       </c>
       <c r="E235" s="37">
-        <v>4086</v>
+        <v>4090</v>
       </c>
       <c r="F235" s="37">
-        <v>1756</v>
+        <v>1765</v>
       </c>
       <c r="G235" s="38">
         <v>20379</v>
@@ -9964,13 +9962,13 @@
         <v>7200</v>
       </c>
       <c r="D236" s="37">
-        <v>5779</v>
+        <v>5799</v>
       </c>
       <c r="E236" s="37">
-        <v>4533</v>
+        <v>4549</v>
       </c>
       <c r="F236" s="37">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="G236" s="38">
         <v>36546</v>
@@ -9999,13 +9997,13 @@
         <v>3000</v>
       </c>
       <c r="D237" s="37">
-        <v>5737</v>
+        <v>5811</v>
       </c>
       <c r="E237" s="37">
-        <v>3970</v>
+        <v>3997</v>
       </c>
       <c r="F237" s="37">
-        <v>1767</v>
+        <v>1814</v>
       </c>
       <c r="G237" s="38">
         <v>45216</v>
@@ -10034,13 +10032,13 @@
         <v>17850</v>
       </c>
       <c r="D238" s="37">
-        <v>14521</v>
+        <v>14760</v>
       </c>
       <c r="E238" s="37">
-        <v>10533</v>
+        <v>10585</v>
       </c>
       <c r="F238" s="37">
-        <v>3988</v>
+        <v>4175</v>
       </c>
       <c r="G238" s="38">
         <v>71388</v>
@@ -10069,13 +10067,13 @@
         <v>5900</v>
       </c>
       <c r="D239" s="37">
-        <v>5679</v>
+        <v>5742</v>
       </c>
       <c r="E239" s="37">
-        <v>4056</v>
+        <v>4096</v>
       </c>
       <c r="F239" s="37">
-        <v>1623</v>
+        <v>1646</v>
       </c>
       <c r="G239" s="38">
         <v>63471</v>
@@ -10104,13 +10102,13 @@
         <v>3400</v>
       </c>
       <c r="D240" s="37">
-        <v>4202</v>
+        <v>4337</v>
       </c>
       <c r="E240" s="37">
-        <v>3083</v>
+        <v>3169</v>
       </c>
       <c r="F240" s="37">
-        <v>1119</v>
+        <v>1168</v>
       </c>
       <c r="G240" s="38">
         <v>43350</v>
@@ -10139,13 +10137,13 @@
         <v>700</v>
       </c>
       <c r="D241" s="37">
-        <v>1731</v>
+        <v>1740</v>
       </c>
       <c r="E241" s="37">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="F241" s="37">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="G241" s="38">
         <v>8921</v>
@@ -10174,13 +10172,13 @@
         <v>19000</v>
       </c>
       <c r="D242" s="37">
-        <v>6335</v>
+        <v>6379</v>
       </c>
       <c r="E242" s="37">
-        <v>5111</v>
+        <v>5128</v>
       </c>
       <c r="F242" s="37">
-        <v>1224</v>
+        <v>1251</v>
       </c>
       <c r="G242" s="38">
         <v>29086</v>
@@ -10209,13 +10207,13 @@
         <v>52100</v>
       </c>
       <c r="D243" s="37">
-        <v>43205</v>
+        <v>44103</v>
       </c>
       <c r="E243" s="37">
-        <v>30879</v>
+        <v>31305</v>
       </c>
       <c r="F243" s="37">
-        <v>12326</v>
+        <v>12798</v>
       </c>
       <c r="G243" s="38">
         <v>196916</v>
@@ -10244,13 +10242,13 @@
         <v>3800</v>
       </c>
       <c r="D244" s="37">
-        <v>4050</v>
+        <v>4168</v>
       </c>
       <c r="E244" s="37">
-        <v>2778</v>
+        <v>2824</v>
       </c>
       <c r="F244" s="37">
-        <v>1272</v>
+        <v>1344</v>
       </c>
       <c r="G244" s="38">
         <v>32110</v>
@@ -10279,13 +10277,13 @@
         <v>1000</v>
       </c>
       <c r="D245" s="37">
-        <v>1056</v>
+        <v>1092</v>
       </c>
       <c r="E245" s="37">
-        <v>711</v>
+        <v>744</v>
       </c>
       <c r="F245" s="37">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G245" s="38">
         <v>3915</v>
@@ -10314,13 +10312,13 @@
         <v>31350</v>
       </c>
       <c r="D246" s="37">
-        <v>25733</v>
+        <v>25817</v>
       </c>
       <c r="E246" s="37">
-        <v>17053</v>
+        <v>17119</v>
       </c>
       <c r="F246" s="37">
-        <v>8680</v>
+        <v>8698</v>
       </c>
       <c r="G246" s="38">
         <v>105631</v>
@@ -10349,13 +10347,13 @@
         <v>5800</v>
       </c>
       <c r="D247" s="37">
-        <v>3662</v>
+        <v>3658</v>
       </c>
       <c r="E247" s="37">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="F247" s="37">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="G247" s="38">
         <v>10361</v>
@@ -10384,13 +10382,13 @@
         <v>900</v>
       </c>
       <c r="D248" s="37">
-        <v>2568</v>
+        <v>2683</v>
       </c>
       <c r="E248" s="37">
-        <v>1925</v>
+        <v>2024</v>
       </c>
       <c r="F248" s="37">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="G248" s="38">
         <v>16897</v>
@@ -10419,13 +10417,13 @@
         <v>82850</v>
       </c>
       <c r="D249" s="37">
-        <v>66286</v>
+        <v>66774</v>
       </c>
       <c r="E249" s="37">
-        <v>46727</v>
+        <v>47142</v>
       </c>
       <c r="F249" s="37">
-        <v>19559</v>
+        <v>19632</v>
       </c>
       <c r="G249" s="38">
         <v>458433</v>
@@ -10454,13 +10452,13 @@
         <v>4500</v>
       </c>
       <c r="D250" s="37">
-        <v>6628</v>
+        <v>6712</v>
       </c>
       <c r="E250" s="37">
-        <v>4281</v>
+        <v>4317</v>
       </c>
       <c r="F250" s="37">
-        <v>2347</v>
+        <v>2395</v>
       </c>
       <c r="G250" s="38">
         <v>40488</v>
@@ -10489,10 +10487,10 @@
         <v>500</v>
       </c>
       <c r="D251" s="37">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E251" s="37">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F251" s="37">
         <v>236</v>
@@ -10524,13 +10522,13 @@
         <v>7950</v>
       </c>
       <c r="D252" s="37">
-        <v>7930</v>
+        <v>7969</v>
       </c>
       <c r="E252" s="37">
-        <v>4747</v>
+        <v>4761</v>
       </c>
       <c r="F252" s="37">
-        <v>3183</v>
+        <v>3208</v>
       </c>
       <c r="G252" s="38">
         <v>54722</v>
@@ -10559,13 +10557,13 @@
         <v>2500</v>
       </c>
       <c r="D253" s="37">
-        <v>5792</v>
+        <v>5943</v>
       </c>
       <c r="E253" s="37">
-        <v>4164</v>
+        <v>4181</v>
       </c>
       <c r="F253" s="37">
-        <v>1628</v>
+        <v>1762</v>
       </c>
       <c r="G253" s="38">
         <v>38005</v>
@@ -10594,13 +10592,13 @@
         <v>800</v>
       </c>
       <c r="D254" s="37">
-        <v>1313</v>
+        <v>1326</v>
       </c>
       <c r="E254" s="37">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="F254" s="37">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G254" s="38">
         <v>6135</v>
@@ -10629,10 +10627,10 @@
         <v>3200</v>
       </c>
       <c r="D255" s="37">
-        <v>2822</v>
+        <v>2878</v>
       </c>
       <c r="E255" s="37">
-        <v>1962</v>
+        <v>2018</v>
       </c>
       <c r="F255" s="37">
         <v>860</v>
@@ -10664,13 +10662,13 @@
         <v>1100</v>
       </c>
       <c r="D256" s="37">
-        <v>1575</v>
+        <v>1584</v>
       </c>
       <c r="E256" s="37">
-        <v>1376</v>
+        <v>1384</v>
       </c>
       <c r="F256" s="37">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G256" s="38">
         <v>9981</v>
@@ -10699,13 +10697,13 @@
         <v>200</v>
       </c>
       <c r="D257" s="37">
-        <v>2764</v>
+        <v>2814</v>
       </c>
       <c r="E257" s="37">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="F257" s="37">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="G257" s="38">
         <v>8840</v>
@@ -10734,13 +10732,13 @@
         <v>720525</v>
       </c>
       <c r="D258" s="37">
-        <v>271165</v>
+        <v>257715</v>
       </c>
       <c r="E258" s="37">
-        <v>225893</v>
+        <v>216001</v>
       </c>
       <c r="F258" s="37">
-        <v>45272</v>
+        <v>41714</v>
       </c>
       <c r="G258" s="38"/>
       <c r="H258" s="38"/>
@@ -10776,14 +10774,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="24.19921875" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>272</v>
       </c>
@@ -10803,7 +10801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>275</v>
       </c>
@@ -10814,16 +10812,16 @@
         <v>292</v>
       </c>
       <c r="D2" s="37">
-        <v>59782</v>
+        <v>60349</v>
       </c>
       <c r="E2" s="37">
-        <v>37937</v>
+        <v>38179</v>
       </c>
       <c r="F2" s="37">
-        <v>21845</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
+        <v>22170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>275</v>
       </c>
@@ -10834,16 +10832,16 @@
         <v>293</v>
       </c>
       <c r="D3" s="37">
-        <v>43434</v>
+        <v>44023</v>
       </c>
       <c r="E3" s="37">
-        <v>28383</v>
+        <v>28687</v>
       </c>
       <c r="F3" s="37">
-        <v>15051</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
+        <v>15336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>275</v>
       </c>
@@ -10854,16 +10852,16 @@
         <v>291</v>
       </c>
       <c r="D4" s="37">
-        <v>152094</v>
+        <v>156497</v>
       </c>
       <c r="E4" s="37">
-        <v>103707</v>
+        <v>106772</v>
       </c>
       <c r="F4" s="37">
-        <v>48387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
+        <v>49725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>275</v>
       </c>
@@ -10874,16 +10872,16 @@
         <v>295</v>
       </c>
       <c r="D5" s="37">
-        <v>241897</v>
+        <v>244899</v>
       </c>
       <c r="E5" s="37">
-        <v>154937</v>
+        <v>156495</v>
       </c>
       <c r="F5" s="37">
-        <v>86960</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
+        <v>88404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>275</v>
       </c>
@@ -10894,16 +10892,16 @@
         <v>294</v>
       </c>
       <c r="D6" s="37">
-        <v>80531</v>
+        <v>81262</v>
       </c>
       <c r="E6" s="37">
-        <v>54035</v>
+        <v>54381</v>
       </c>
       <c r="F6" s="37">
-        <v>26496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
+        <v>26881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>275</v>
       </c>
@@ -10914,17 +10912,17 @@
         <v>280</v>
       </c>
       <c r="D7" s="37">
-        <v>322926</v>
+        <v>324819</v>
       </c>
       <c r="E7" s="37">
-        <v>209617</v>
+        <v>210287</v>
       </c>
       <c r="F7" s="37">
-        <v>113309</v>
+        <v>114532</v>
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>275</v>
       </c>
@@ -10935,17 +10933,17 @@
         <v>292</v>
       </c>
       <c r="D8" s="37">
-        <v>30152</v>
+        <v>30531</v>
       </c>
       <c r="E8" s="37">
-        <v>20391</v>
+        <v>20543</v>
       </c>
       <c r="F8" s="37">
-        <v>9761</v>
+        <v>9988</v>
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>275</v>
       </c>
@@ -10956,17 +10954,17 @@
         <v>293</v>
       </c>
       <c r="D9" s="37">
-        <v>38143</v>
+        <v>38858</v>
       </c>
       <c r="E9" s="37">
-        <v>26546</v>
+        <v>26958</v>
       </c>
       <c r="F9" s="37">
-        <v>11597</v>
+        <v>11900</v>
       </c>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>275</v>
       </c>
@@ -10977,17 +10975,17 @@
         <v>291</v>
       </c>
       <c r="D10" s="37">
-        <v>88569</v>
+        <v>91471</v>
       </c>
       <c r="E10" s="37">
-        <v>65141</v>
+        <v>67145</v>
       </c>
       <c r="F10" s="37">
-        <v>23428</v>
+        <v>24326</v>
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>275</v>
       </c>
@@ -10998,17 +10996,17 @@
         <v>295</v>
       </c>
       <c r="D11" s="37">
-        <v>179943</v>
+        <v>183072</v>
       </c>
       <c r="E11" s="37">
-        <v>125875</v>
+        <v>127470</v>
       </c>
       <c r="F11" s="37">
-        <v>54068</v>
+        <v>55602</v>
       </c>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>275</v>
       </c>
@@ -11019,17 +11017,17 @@
         <v>294</v>
       </c>
       <c r="D12" s="37">
-        <v>51472</v>
+        <v>52022</v>
       </c>
       <c r="E12" s="37">
-        <v>36139</v>
+        <v>36402</v>
       </c>
       <c r="F12" s="37">
-        <v>15333</v>
+        <v>15620</v>
       </c>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>275</v>
       </c>
@@ -11040,17 +11038,17 @@
         <v>280</v>
       </c>
       <c r="D13" s="37">
-        <v>209013</v>
+        <v>210735</v>
       </c>
       <c r="E13" s="37">
-        <v>143088</v>
+        <v>143600</v>
       </c>
       <c r="F13" s="37">
-        <v>65925</v>
+        <v>67135</v>
       </c>
       <c r="O13" s="30"/>
     </row>
-    <row r="14" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>275</v>
       </c>
@@ -11061,13 +11059,13 @@
         <v>292</v>
       </c>
       <c r="D14" s="37">
-        <v>34234</v>
+        <v>34802</v>
       </c>
       <c r="E14" s="37">
-        <v>24901</v>
+        <v>25062</v>
       </c>
       <c r="F14" s="37">
-        <v>9333</v>
+        <v>9740</v>
       </c>
       <c r="O14" s="30"/>
     </row>
@@ -11082,13 +11080,13 @@
         <v>293</v>
       </c>
       <c r="D15" s="37">
-        <v>39369</v>
+        <v>40291</v>
       </c>
       <c r="E15" s="37">
-        <v>30468</v>
+        <v>30979</v>
       </c>
       <c r="F15" s="37">
-        <v>8901</v>
+        <v>9312</v>
       </c>
       <c r="O15" s="30"/>
     </row>
@@ -11103,13 +11101,13 @@
         <v>291</v>
       </c>
       <c r="D16" s="37">
-        <v>82992</v>
+        <v>85889</v>
       </c>
       <c r="E16" s="37">
-        <v>63987</v>
+        <v>65806</v>
       </c>
       <c r="F16" s="37">
-        <v>19005</v>
+        <v>20083</v>
       </c>
       <c r="O16" s="30"/>
     </row>
@@ -11124,13 +11122,13 @@
         <v>295</v>
       </c>
       <c r="D17" s="37">
-        <v>315480</v>
+        <v>322545</v>
       </c>
       <c r="E17" s="37">
-        <v>235636</v>
+        <v>238792</v>
       </c>
       <c r="F17" s="37">
-        <v>79844</v>
+        <v>83753</v>
       </c>
       <c r="O17" s="30"/>
     </row>
@@ -11145,13 +11143,13 @@
         <v>294</v>
       </c>
       <c r="D18" s="37">
-        <v>59602</v>
+        <v>60433</v>
       </c>
       <c r="E18" s="37">
-        <v>42997</v>
+        <v>43370</v>
       </c>
       <c r="F18" s="37">
-        <v>16605</v>
+        <v>17063</v>
       </c>
       <c r="O18" s="30"/>
     </row>
@@ -11166,13 +11164,13 @@
         <v>280</v>
       </c>
       <c r="D19" s="37">
-        <v>228970</v>
+        <v>231110</v>
       </c>
       <c r="E19" s="37">
-        <v>168125</v>
+        <v>168712</v>
       </c>
       <c r="F19" s="37">
-        <v>60845</v>
+        <v>62398</v>
       </c>
       <c r="O19" s="30"/>
     </row>
@@ -11187,13 +11185,13 @@
         <v>292</v>
       </c>
       <c r="D20" s="37">
-        <v>7308</v>
+        <v>7469</v>
       </c>
       <c r="E20" s="37">
-        <v>5212</v>
+        <v>5242</v>
       </c>
       <c r="F20" s="37">
-        <v>2096</v>
+        <v>2227</v>
       </c>
       <c r="O20" s="30"/>
     </row>
@@ -11208,13 +11206,13 @@
         <v>293</v>
       </c>
       <c r="D21" s="37">
-        <v>8664</v>
+        <v>8868</v>
       </c>
       <c r="E21" s="37">
-        <v>6644</v>
+        <v>6760</v>
       </c>
       <c r="F21" s="37">
-        <v>2020</v>
+        <v>2108</v>
       </c>
       <c r="O21" s="30"/>
     </row>
@@ -11229,13 +11227,13 @@
         <v>291</v>
       </c>
       <c r="D22" s="37">
-        <v>20651</v>
+        <v>21379</v>
       </c>
       <c r="E22" s="37">
-        <v>16123</v>
+        <v>16611</v>
       </c>
       <c r="F22" s="37">
-        <v>4528</v>
+        <v>4768</v>
       </c>
       <c r="O22" s="30"/>
     </row>
@@ -11250,13 +11248,13 @@
         <v>295</v>
       </c>
       <c r="D23" s="37">
-        <v>94383</v>
+        <v>96442</v>
       </c>
       <c r="E23" s="37">
-        <v>69157</v>
+        <v>70080</v>
       </c>
       <c r="F23" s="37">
-        <v>25226</v>
+        <v>26362</v>
       </c>
       <c r="O23" s="30"/>
     </row>
@@ -11271,13 +11269,13 @@
         <v>294</v>
       </c>
       <c r="D24" s="37">
-        <v>51301</v>
+        <v>51559</v>
       </c>
       <c r="E24" s="37">
-        <v>35307</v>
+        <v>35381</v>
       </c>
       <c r="F24" s="37">
-        <v>15994</v>
+        <v>16178</v>
       </c>
       <c r="O24" s="30"/>
     </row>
@@ -11292,13 +11290,13 @@
         <v>280</v>
       </c>
       <c r="D25" s="37">
-        <v>81826</v>
+        <v>82409</v>
       </c>
       <c r="E25" s="37">
-        <v>59626</v>
+        <v>59707</v>
       </c>
       <c r="F25" s="37">
-        <v>22200</v>
+        <v>22702</v>
       </c>
       <c r="O25" s="30"/>
     </row>
@@ -11334,13 +11332,13 @@
         <v>293</v>
       </c>
       <c r="D27" s="37">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="37">
         <v>26</v>
       </c>
       <c r="F27" s="37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O27" s="30"/>
     </row>
@@ -11355,10 +11353,10 @@
         <v>291</v>
       </c>
       <c r="D28" s="37">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E28" s="37">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F28" s="37">
         <v>15</v>
@@ -11376,13 +11374,13 @@
         <v>295</v>
       </c>
       <c r="D29" s="37">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E29" s="37">
         <v>207</v>
       </c>
       <c r="F29" s="37">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O29" s="30"/>
     </row>
@@ -11418,13 +11416,13 @@
         <v>280</v>
       </c>
       <c r="D31" s="37">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="E31" s="37">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="F31" s="37">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O31" s="30"/>
     </row>
@@ -11439,13 +11437,13 @@
         <v>292</v>
       </c>
       <c r="D32" s="37">
-        <v>40785</v>
+        <v>41228</v>
       </c>
       <c r="E32" s="37">
-        <v>26584</v>
+        <v>26801</v>
       </c>
       <c r="F32" s="37">
-        <v>14201</v>
+        <v>14427</v>
       </c>
       <c r="O32" s="30"/>
     </row>
@@ -11460,13 +11458,13 @@
         <v>293</v>
       </c>
       <c r="D33" s="37">
-        <v>20059</v>
+        <v>20453</v>
       </c>
       <c r="E33" s="37">
-        <v>13524</v>
+        <v>13773</v>
       </c>
       <c r="F33" s="37">
-        <v>6535</v>
+        <v>6680</v>
       </c>
       <c r="O33" s="30"/>
     </row>
@@ -11481,13 +11479,13 @@
         <v>291</v>
       </c>
       <c r="D34" s="37">
-        <v>87746</v>
+        <v>91218</v>
       </c>
       <c r="E34" s="37">
-        <v>62338</v>
+        <v>64869</v>
       </c>
       <c r="F34" s="37">
-        <v>25408</v>
+        <v>26349</v>
       </c>
       <c r="O34" s="30"/>
     </row>
@@ -11502,13 +11500,13 @@
         <v>295</v>
       </c>
       <c r="D35" s="37">
-        <v>133924</v>
+        <v>136223</v>
       </c>
       <c r="E35" s="37">
-        <v>89438</v>
+        <v>90751</v>
       </c>
       <c r="F35" s="37">
-        <v>44486</v>
+        <v>45472</v>
       </c>
       <c r="O35" s="30"/>
     </row>
@@ -11523,13 +11521,13 @@
         <v>294</v>
       </c>
       <c r="D36" s="37">
-        <v>40593</v>
+        <v>41154</v>
       </c>
       <c r="E36" s="37">
-        <v>27658</v>
+        <v>27942</v>
       </c>
       <c r="F36" s="37">
-        <v>12935</v>
+        <v>13212</v>
       </c>
       <c r="O36" s="30"/>
     </row>
@@ -11544,13 +11542,13 @@
         <v>280</v>
       </c>
       <c r="D37" s="37">
-        <v>197603</v>
+        <v>198980</v>
       </c>
       <c r="E37" s="37">
-        <v>130561</v>
+        <v>131106</v>
       </c>
       <c r="F37" s="37">
-        <v>67042</v>
+        <v>67874</v>
       </c>
       <c r="O37" s="30"/>
     </row>
@@ -11565,13 +11563,13 @@
         <v>292</v>
       </c>
       <c r="D38" s="37">
-        <v>22721</v>
+        <v>23051</v>
       </c>
       <c r="E38" s="37">
-        <v>15833</v>
+        <v>15962</v>
       </c>
       <c r="F38" s="37">
-        <v>6888</v>
+        <v>7089</v>
       </c>
       <c r="O38" s="30"/>
     </row>
@@ -11586,13 +11584,13 @@
         <v>293</v>
       </c>
       <c r="D39" s="37">
-        <v>22367</v>
+        <v>22863</v>
       </c>
       <c r="E39" s="37">
-        <v>16177</v>
+        <v>16488</v>
       </c>
       <c r="F39" s="37">
-        <v>6190</v>
+        <v>6375</v>
       </c>
       <c r="O39" s="30"/>
     </row>
@@ -11607,13 +11605,13 @@
         <v>291</v>
       </c>
       <c r="D40" s="37">
-        <v>60357</v>
+        <v>62702</v>
       </c>
       <c r="E40" s="37">
-        <v>45429</v>
+        <v>47049</v>
       </c>
       <c r="F40" s="37">
-        <v>14928</v>
+        <v>15653</v>
       </c>
       <c r="O40" s="30"/>
     </row>
@@ -11628,13 +11626,13 @@
         <v>295</v>
       </c>
       <c r="D41" s="37">
-        <v>124004</v>
+        <v>126581</v>
       </c>
       <c r="E41" s="37">
-        <v>89297</v>
+        <v>90630</v>
       </c>
       <c r="F41" s="37">
-        <v>34707</v>
+        <v>35951</v>
       </c>
       <c r="O41" s="30"/>
     </row>
@@ -11649,13 +11647,13 @@
         <v>294</v>
       </c>
       <c r="D42" s="37">
-        <v>29474</v>
+        <v>29875</v>
       </c>
       <c r="E42" s="37">
-        <v>20933</v>
+        <v>21139</v>
       </c>
       <c r="F42" s="37">
-        <v>8541</v>
+        <v>8736</v>
       </c>
       <c r="O42" s="30"/>
     </row>
@@ -11670,13 +11668,13 @@
         <v>280</v>
       </c>
       <c r="D43" s="37">
-        <v>141778</v>
+        <v>143222</v>
       </c>
       <c r="E43" s="37">
-        <v>98773</v>
+        <v>99243</v>
       </c>
       <c r="F43" s="37">
-        <v>43005</v>
+        <v>43979</v>
       </c>
       <c r="O43" s="30"/>
     </row>
@@ -11691,13 +11689,13 @@
         <v>292</v>
       </c>
       <c r="D44" s="37">
-        <v>30275</v>
+        <v>30768</v>
       </c>
       <c r="E44" s="37">
-        <v>21935</v>
+        <v>22078</v>
       </c>
       <c r="F44" s="37">
-        <v>8340</v>
+        <v>8690</v>
       </c>
       <c r="O44" s="30"/>
     </row>
@@ -11712,13 +11710,13 @@
         <v>293</v>
       </c>
       <c r="D45" s="37">
-        <v>25584</v>
+        <v>26209</v>
       </c>
       <c r="E45" s="37">
-        <v>19755</v>
+        <v>20113</v>
       </c>
       <c r="F45" s="37">
-        <v>5829</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11732,13 +11730,13 @@
         <v>291</v>
       </c>
       <c r="D46" s="37">
-        <v>63086</v>
+        <v>65162</v>
       </c>
       <c r="E46" s="37">
-        <v>48413</v>
+        <v>49693</v>
       </c>
       <c r="F46" s="37">
-        <v>14673</v>
+        <v>15469</v>
       </c>
       <c r="O46" s="30"/>
     </row>
@@ -11753,13 +11751,13 @@
         <v>295</v>
       </c>
       <c r="D47" s="37">
-        <v>271285</v>
+        <v>277690</v>
       </c>
       <c r="E47" s="37">
-        <v>201901</v>
+        <v>204831</v>
       </c>
       <c r="F47" s="37">
-        <v>69384</v>
+        <v>72859</v>
       </c>
       <c r="O47" s="30"/>
     </row>
@@ -11774,13 +11772,13 @@
         <v>294</v>
       </c>
       <c r="D48" s="37">
-        <v>44221</v>
+        <v>44858</v>
       </c>
       <c r="E48" s="37">
-        <v>31803</v>
+        <v>32115</v>
       </c>
       <c r="F48" s="37">
-        <v>12418</v>
+        <v>12743</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11794,13 +11792,13 @@
         <v>280</v>
       </c>
       <c r="D49" s="37">
-        <v>189439</v>
+        <v>191394</v>
       </c>
       <c r="E49" s="37">
-        <v>138588</v>
+        <v>139191</v>
       </c>
       <c r="F49" s="37">
-        <v>50851</v>
+        <v>52203</v>
       </c>
       <c r="O49" s="30"/>
     </row>
@@ -11815,13 +11813,13 @@
         <v>292</v>
       </c>
       <c r="D50" s="37">
-        <v>6366</v>
+        <v>6497</v>
       </c>
       <c r="E50" s="37">
-        <v>4440</v>
+        <v>4462</v>
       </c>
       <c r="F50" s="37">
-        <v>1926</v>
+        <v>2035</v>
       </c>
       <c r="O50" s="30"/>
     </row>
@@ -11836,13 +11834,13 @@
         <v>293</v>
       </c>
       <c r="D51" s="37">
-        <v>4336</v>
+        <v>4449</v>
       </c>
       <c r="E51" s="37">
-        <v>3262</v>
+        <v>3322</v>
       </c>
       <c r="F51" s="37">
-        <v>1074</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11856,13 +11854,13 @@
         <v>291</v>
       </c>
       <c r="D52" s="37">
-        <v>12792</v>
+        <v>13227</v>
       </c>
       <c r="E52" s="37">
-        <v>9922</v>
+        <v>10201</v>
       </c>
       <c r="F52" s="37">
-        <v>2870</v>
+        <v>3026</v>
       </c>
       <c r="O52" s="30"/>
     </row>
@@ -11877,13 +11875,13 @@
         <v>295</v>
       </c>
       <c r="D53" s="37">
-        <v>75102</v>
+        <v>76807</v>
       </c>
       <c r="E53" s="37">
-        <v>53626</v>
+        <v>54331</v>
       </c>
       <c r="F53" s="37">
-        <v>21476</v>
+        <v>22476</v>
       </c>
       <c r="O53" s="30"/>
     </row>
@@ -11898,13 +11896,13 @@
         <v>294</v>
       </c>
       <c r="D54" s="37">
-        <v>22099</v>
+        <v>22255</v>
       </c>
       <c r="E54" s="37">
-        <v>15373</v>
+        <v>15435</v>
       </c>
       <c r="F54" s="37">
-        <v>6726</v>
+        <v>6820</v>
       </c>
       <c r="O54" s="30"/>
     </row>
@@ -11919,13 +11917,13 @@
         <v>280</v>
       </c>
       <c r="D55" s="37">
-        <v>52910</v>
+        <v>53290</v>
       </c>
       <c r="E55" s="37">
-        <v>38710</v>
+        <v>38709</v>
       </c>
       <c r="F55" s="37">
-        <v>14200</v>
+        <v>14581</v>
       </c>
       <c r="O55" s="30"/>
     </row>
@@ -11961,10 +11959,10 @@
         <v>293</v>
       </c>
       <c r="D57" s="37">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E57" s="37">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F57" s="37">
         <v>2</v>
@@ -11981,10 +11979,10 @@
         <v>291</v>
       </c>
       <c r="D58" s="37">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E58" s="37">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F58" s="37">
         <v>10</v>
@@ -12002,10 +12000,10 @@
         <v>295</v>
       </c>
       <c r="D59" s="37">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E59" s="37">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F59" s="37">
         <v>20</v>
@@ -12044,13 +12042,13 @@
         <v>280</v>
       </c>
       <c r="D61" s="37">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="E61" s="37">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F61" s="37">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O61" s="30"/>
     </row>
@@ -12065,10 +12063,10 @@
         <v>292</v>
       </c>
       <c r="D62" s="37">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E62" s="37">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F62" s="37">
         <v>316</v>
@@ -12086,13 +12084,13 @@
         <v>293</v>
       </c>
       <c r="D63" s="37">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="E63" s="37">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F63" s="37">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12106,13 +12104,13 @@
         <v>291</v>
       </c>
       <c r="D64" s="37">
-        <v>1332</v>
+        <v>1345</v>
       </c>
       <c r="E64" s="37">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="F64" s="37">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="O64" s="30"/>
     </row>
@@ -12127,13 +12125,13 @@
         <v>295</v>
       </c>
       <c r="D65" s="37">
-        <v>2792</v>
+        <v>2808</v>
       </c>
       <c r="E65" s="37">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="F65" s="37">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="O65" s="30"/>
     </row>
@@ -12148,13 +12146,13 @@
         <v>294</v>
       </c>
       <c r="D66" s="37">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="E66" s="37">
         <v>1303</v>
       </c>
       <c r="F66" s="37">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12168,13 +12166,13 @@
         <v>280</v>
       </c>
       <c r="D67" s="37">
-        <v>10287</v>
+        <v>10297</v>
       </c>
       <c r="E67" s="37">
-        <v>8395</v>
+        <v>8402</v>
       </c>
       <c r="F67" s="37">
-        <v>1892</v>
+        <v>1895</v>
       </c>
       <c r="O67" s="30"/>
     </row>
@@ -12189,13 +12187,13 @@
         <v>292</v>
       </c>
       <c r="D68" s="37">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E68" s="37">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F68" s="37">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O68" s="30"/>
     </row>
@@ -12210,13 +12208,13 @@
         <v>293</v>
       </c>
       <c r="D69" s="37">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="E69" s="37">
         <v>418</v>
       </c>
       <c r="F69" s="37">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12230,10 +12228,10 @@
         <v>291</v>
       </c>
       <c r="D70" s="37">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E70" s="37">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F70" s="37">
         <v>160</v>
@@ -12251,13 +12249,13 @@
         <v>295</v>
       </c>
       <c r="D71" s="37">
-        <v>2374</v>
+        <v>2391</v>
       </c>
       <c r="E71" s="37">
         <v>1569</v>
       </c>
       <c r="F71" s="37">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="O71" s="30"/>
     </row>
@@ -12272,13 +12270,13 @@
         <v>294</v>
       </c>
       <c r="D72" s="37">
-        <v>1316</v>
+        <v>1323</v>
       </c>
       <c r="E72" s="37">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="F72" s="37">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="73" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12292,13 +12290,13 @@
         <v>280</v>
       </c>
       <c r="D73" s="37">
-        <v>10554</v>
+        <v>10559</v>
       </c>
       <c r="E73" s="37">
-        <v>8337</v>
+        <v>8338</v>
       </c>
       <c r="F73" s="37">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="O73" s="30"/>
     </row>
@@ -12313,13 +12311,13 @@
         <v>292</v>
       </c>
       <c r="D74" s="37">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="E74" s="37">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="F74" s="37">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O74" s="30"/>
     </row>
@@ -12334,10 +12332,10 @@
         <v>293</v>
       </c>
       <c r="D75" s="37">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="E75" s="37">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F75" s="37">
         <v>397</v>
@@ -12355,13 +12353,13 @@
         <v>291</v>
       </c>
       <c r="D76" s="37">
-        <v>1411</v>
+        <v>1416</v>
       </c>
       <c r="E76" s="37">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="F76" s="37">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O76" s="30"/>
     </row>
@@ -12376,13 +12374,13 @@
         <v>295</v>
       </c>
       <c r="D77" s="37">
-        <v>11715</v>
+        <v>11720</v>
       </c>
       <c r="E77" s="37">
-        <v>7488</v>
+        <v>7486</v>
       </c>
       <c r="F77" s="37">
-        <v>4227</v>
+        <v>4234</v>
       </c>
       <c r="O77" s="30"/>
     </row>
@@ -12397,13 +12395,13 @@
         <v>294</v>
       </c>
       <c r="D78" s="37">
-        <v>4879</v>
+        <v>4877</v>
       </c>
       <c r="E78" s="37">
-        <v>2953</v>
+        <v>2948</v>
       </c>
       <c r="F78" s="37">
-        <v>1926</v>
+        <v>1929</v>
       </c>
       <c r="O78" s="30"/>
     </row>
@@ -12418,13 +12416,13 @@
         <v>280</v>
       </c>
       <c r="D79" s="37">
-        <v>18879</v>
+        <v>18874</v>
       </c>
       <c r="E79" s="37">
-        <v>13076</v>
+        <v>13070</v>
       </c>
       <c r="F79" s="37">
-        <v>5803</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12458,10 +12456,10 @@
         <v>293</v>
       </c>
       <c r="D81" s="37">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E81" s="37">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F81" s="37">
         <v>54</v>
@@ -12478,10 +12476,10 @@
         <v>291</v>
       </c>
       <c r="D82" s="37">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E82" s="37">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F82" s="37">
         <v>88</v>
@@ -12498,13 +12496,13 @@
         <v>295</v>
       </c>
       <c r="D83" s="37">
-        <v>2190</v>
+        <v>2193</v>
       </c>
       <c r="E83" s="37">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="F83" s="37">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12518,13 +12516,13 @@
         <v>294</v>
       </c>
       <c r="D84" s="37">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E84" s="37">
         <v>532</v>
       </c>
       <c r="F84" s="37">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12538,13 +12536,13 @@
         <v>280</v>
       </c>
       <c r="D85" s="37">
-        <v>3033</v>
+        <v>3035</v>
       </c>
       <c r="E85" s="37">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="F85" s="37">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12678,13 +12676,13 @@
         <v>281</v>
       </c>
       <c r="D92" s="37">
-        <v>4325352</v>
+        <v>4395705</v>
       </c>
       <c r="E92" s="37">
-        <v>3047251</v>
+        <v>3082676</v>
       </c>
       <c r="F92" s="37">
-        <v>1278101</v>
+        <v>1313029</v>
       </c>
     </row>
   </sheetData>
@@ -12695,7 +12693,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C334"/>
+  <dimension ref="A1:C339"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12703,7 +12701,7 @@
   <cols>
     <col min="1" max="1" width="10.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.73046875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.59765625" style="23"/>
   </cols>
   <sheetData>
@@ -12759,7 +12757,7 @@
         <v>44182</v>
       </c>
       <c r="C5" s="32">
-        <v>15994</v>
+        <v>15996</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12770,7 +12768,7 @@
         <v>44183</v>
       </c>
       <c r="C6" s="32">
-        <v>24807</v>
+        <v>24828</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12803,7 +12801,7 @@
         <v>44186</v>
       </c>
       <c r="C9" s="32">
-        <v>18474</v>
+        <v>18486</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12814,7 +12812,7 @@
         <v>44187</v>
       </c>
       <c r="C10" s="32">
-        <v>17244</v>
+        <v>17267</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12825,7 +12823,7 @@
         <v>44188</v>
       </c>
       <c r="C11" s="32">
-        <v>24680</v>
+        <v>24737</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12836,7 +12834,7 @@
         <v>44189</v>
       </c>
       <c r="C12" s="32">
-        <v>10272</v>
+        <v>10271</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12880,7 +12878,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="32">
-        <v>25517</v>
+        <v>25595</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12891,7 +12889,7 @@
         <v>44194</v>
       </c>
       <c r="C17" s="32">
-        <v>32142</v>
+        <v>32232</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12902,7 +12900,7 @@
         <v>44195</v>
       </c>
       <c r="C18" s="32">
-        <v>38005</v>
+        <v>38130</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12913,7 +12911,7 @@
         <v>44196</v>
       </c>
       <c r="C19" s="32">
-        <v>21688</v>
+        <v>21702</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12935,7 +12933,7 @@
         <v>44198</v>
       </c>
       <c r="C21" s="32">
-        <v>10099</v>
+        <v>10132</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12946,7 +12944,7 @@
         <v>44199</v>
       </c>
       <c r="C22" s="32">
-        <v>6286</v>
+        <v>6314</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12957,7 +12955,7 @@
         <v>44200</v>
       </c>
       <c r="C23" s="32">
-        <v>24159</v>
+        <v>24237</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12968,7 +12966,7 @@
         <v>44201</v>
       </c>
       <c r="C24" s="32">
-        <v>28111</v>
+        <v>28201</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12979,7 +12977,7 @@
         <v>44202</v>
       </c>
       <c r="C25" s="32">
-        <v>36181</v>
+        <v>36312</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12990,7 +12988,7 @@
         <v>44203</v>
       </c>
       <c r="C26" s="32">
-        <v>40962</v>
+        <v>41065</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13001,7 +12999,7 @@
         <v>44204</v>
       </c>
       <c r="C27" s="32">
-        <v>44086</v>
+        <v>44146</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13012,7 +13010,7 @@
         <v>44205</v>
       </c>
       <c r="C28" s="32">
-        <v>18636</v>
+        <v>18639</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13034,7 +13032,7 @@
         <v>44207</v>
       </c>
       <c r="C30" s="32">
-        <v>28627</v>
+        <v>28646</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13045,7 +13043,7 @@
         <v>44208</v>
       </c>
       <c r="C31" s="32">
-        <v>30250</v>
+        <v>30372</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13056,7 +13054,7 @@
         <v>44209</v>
       </c>
       <c r="C32" s="32">
-        <v>28234</v>
+        <v>28299</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13067,7 +13065,7 @@
         <v>44210</v>
       </c>
       <c r="C33" s="32">
-        <v>21817</v>
+        <v>21898</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13078,7 +13076,7 @@
         <v>44211</v>
       </c>
       <c r="C34" s="32">
-        <v>23879</v>
+        <v>23947</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13089,7 +13087,7 @@
         <v>44212</v>
       </c>
       <c r="C35" s="32">
-        <v>13070</v>
+        <v>13075</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13111,7 +13109,7 @@
         <v>44214</v>
       </c>
       <c r="C37" s="32">
-        <v>12217</v>
+        <v>12277</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13122,7 +13120,7 @@
         <v>44215</v>
       </c>
       <c r="C38" s="32">
-        <v>22540</v>
+        <v>22580</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13133,7 +13131,7 @@
         <v>44216</v>
       </c>
       <c r="C39" s="32">
-        <v>30267</v>
+        <v>30279</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13144,7 +13142,7 @@
         <v>44217</v>
       </c>
       <c r="C40" s="32">
-        <v>27721</v>
+        <v>27729</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13155,7 +13153,7 @@
         <v>44218</v>
       </c>
       <c r="C41" s="32">
-        <v>33465</v>
+        <v>33531</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13166,7 +13164,7 @@
         <v>44219</v>
       </c>
       <c r="C42" s="32">
-        <v>18612</v>
+        <v>18639</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13177,7 +13175,7 @@
         <v>44220</v>
       </c>
       <c r="C43" s="32">
-        <v>7803</v>
+        <v>7802</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13188,7 +13186,7 @@
         <v>44221</v>
       </c>
       <c r="C44" s="32">
-        <v>34444</v>
+        <v>34803</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13199,7 +13197,7 @@
         <v>44222</v>
       </c>
       <c r="C45" s="32">
-        <v>41527</v>
+        <v>41931</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13210,7 +13208,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="32">
-        <v>42534</v>
+        <v>43099</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13221,7 +13219,7 @@
         <v>44224</v>
       </c>
       <c r="C47" s="32">
-        <v>39016</v>
+        <v>39405</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13232,7 +13230,7 @@
         <v>44225</v>
       </c>
       <c r="C48" s="32">
-        <v>36763</v>
+        <v>36986</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13243,7 +13241,7 @@
         <v>44226</v>
       </c>
       <c r="C49" s="32">
-        <v>18136</v>
+        <v>18322</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13254,7 +13252,7 @@
         <v>44227</v>
       </c>
       <c r="C50" s="32">
-        <v>7619</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13265,7 +13263,7 @@
         <v>44228</v>
       </c>
       <c r="C51" s="32">
-        <v>31460</v>
+        <v>31469</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13276,7 +13274,7 @@
         <v>44229</v>
       </c>
       <c r="C52" s="32">
-        <v>31152</v>
+        <v>31181</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13287,7 +13285,7 @@
         <v>44230</v>
       </c>
       <c r="C53" s="32">
-        <v>43370</v>
+        <v>43385</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13298,7 +13296,7 @@
         <v>44231</v>
       </c>
       <c r="C54" s="32">
-        <v>42232</v>
+        <v>42331</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13309,7 +13307,7 @@
         <v>44232</v>
       </c>
       <c r="C55" s="32">
-        <v>47247</v>
+        <v>47330</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13320,7 +13318,7 @@
         <v>44233</v>
       </c>
       <c r="C56" s="32">
-        <v>26593</v>
+        <v>26613</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13342,7 +13340,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="32">
-        <v>23226</v>
+        <v>23250</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13353,7 +13351,7 @@
         <v>44236</v>
       </c>
       <c r="C59" s="32">
-        <v>32922</v>
+        <v>33136</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13364,7 +13362,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="32">
-        <v>33654</v>
+        <v>40982</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13375,7 +13373,7 @@
         <v>44238</v>
       </c>
       <c r="C61" s="32">
-        <v>29844</v>
+        <v>30633</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13386,7 +13384,7 @@
         <v>44239</v>
       </c>
       <c r="C62" s="32">
-        <v>36987</v>
+        <v>37316</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13397,7 +13395,7 @@
         <v>44240</v>
       </c>
       <c r="C63" s="32">
-        <v>20285</v>
+        <v>20594</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13408,7 +13406,7 @@
         <v>44241</v>
       </c>
       <c r="C64" s="32">
-        <v>4641</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13419,7 +13417,7 @@
         <v>44242</v>
       </c>
       <c r="C65" s="32">
-        <v>3541</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13430,7 +13428,7 @@
         <v>44243</v>
       </c>
       <c r="C66" s="32">
-        <v>5070</v>
+        <v>5455</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13441,7 +13439,7 @@
         <v>44244</v>
       </c>
       <c r="C67" s="32">
-        <v>1542</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13452,18 +13450,18 @@
         <v>44245</v>
       </c>
       <c r="C68" s="32">
-        <v>1344</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B69" s="35">
-        <v>44179</v>
+        <v>44246</v>
       </c>
       <c r="C69" s="32">
-        <v>139</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13471,10 +13469,10 @@
         <v>277</v>
       </c>
       <c r="B70" s="35">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="C70" s="32">
-        <v>1491</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13482,10 +13480,10 @@
         <v>277</v>
       </c>
       <c r="B71" s="35">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="C71" s="32">
-        <v>4970</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13493,10 +13491,10 @@
         <v>277</v>
       </c>
       <c r="B72" s="35">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="C72" s="32">
-        <v>6644</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13504,10 +13502,10 @@
         <v>277</v>
       </c>
       <c r="B73" s="35">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="C73" s="32">
-        <v>10833</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13515,10 +13513,10 @@
         <v>277</v>
       </c>
       <c r="B74" s="35">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="C74" s="32">
-        <v>4709</v>
+        <v>10854</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13526,10 +13524,10 @@
         <v>277</v>
       </c>
       <c r="B75" s="35">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="C75" s="32">
-        <v>2533</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13537,10 +13535,10 @@
         <v>277</v>
       </c>
       <c r="B76" s="35">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="C76" s="32">
-        <v>7904</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13548,10 +13546,10 @@
         <v>277</v>
       </c>
       <c r="B77" s="35">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="C77" s="32">
-        <v>7405</v>
+        <v>7912</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13559,10 +13557,10 @@
         <v>277</v>
       </c>
       <c r="B78" s="35">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="C78" s="32">
-        <v>10803</v>
+        <v>7419</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13570,10 +13568,10 @@
         <v>277</v>
       </c>
       <c r="B79" s="35">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="C79" s="32">
-        <v>4639</v>
+        <v>10841</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13581,10 +13579,10 @@
         <v>277</v>
       </c>
       <c r="B80" s="35">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="C80" s="32">
-        <v>668</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13592,10 +13590,10 @@
         <v>277</v>
       </c>
       <c r="B81" s="35">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="C81" s="32">
-        <v>3186</v>
+        <v>668</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13603,10 +13601,10 @@
         <v>277</v>
       </c>
       <c r="B82" s="35">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="C82" s="32">
-        <v>2242</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13614,10 +13612,10 @@
         <v>277</v>
       </c>
       <c r="B83" s="35">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="C83" s="32">
-        <v>12882</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13625,10 +13623,10 @@
         <v>277</v>
       </c>
       <c r="B84" s="35">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="C84" s="32">
-        <v>16966</v>
+        <v>12967</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13636,10 +13634,10 @@
         <v>277</v>
       </c>
       <c r="B85" s="35">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="C85" s="32">
-        <v>20863</v>
+        <v>17038</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13647,10 +13645,10 @@
         <v>277</v>
       </c>
       <c r="B86" s="35">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="C86" s="32">
-        <v>12632</v>
+        <v>20970</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13658,10 +13656,10 @@
         <v>277</v>
       </c>
       <c r="B87" s="35">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="C87" s="32">
-        <v>1203</v>
+        <v>12638</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13669,10 +13667,10 @@
         <v>277</v>
       </c>
       <c r="B88" s="35">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="C88" s="32">
-        <v>5808</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13680,10 +13678,10 @@
         <v>277</v>
       </c>
       <c r="B89" s="35">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="C89" s="32">
-        <v>3376</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13691,10 +13689,10 @@
         <v>277</v>
       </c>
       <c r="B90" s="35">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="C90" s="32">
-        <v>14983</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13702,10 +13700,10 @@
         <v>277</v>
       </c>
       <c r="B91" s="35">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="C91" s="32">
-        <v>16700</v>
+        <v>15055</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13713,10 +13711,10 @@
         <v>277</v>
       </c>
       <c r="B92" s="35">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="C92" s="32">
-        <v>20147</v>
+        <v>16757</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13724,10 +13722,10 @@
         <v>277</v>
       </c>
       <c r="B93" s="35">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="C93" s="32">
-        <v>22953</v>
+        <v>20290</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13735,10 +13733,10 @@
         <v>277</v>
       </c>
       <c r="B94" s="35">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="C94" s="32">
-        <v>24659</v>
+        <v>23051</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13746,10 +13744,10 @@
         <v>277</v>
       </c>
       <c r="B95" s="35">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="C95" s="32">
-        <v>10692</v>
+        <v>24724</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13757,10 +13755,10 @@
         <v>277</v>
       </c>
       <c r="B96" s="35">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="C96" s="32">
-        <v>4454</v>
+        <v>10693</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13768,10 +13766,10 @@
         <v>277</v>
       </c>
       <c r="B97" s="35">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="C97" s="32">
-        <v>18203</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13779,10 +13777,10 @@
         <v>277</v>
       </c>
       <c r="B98" s="35">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="C98" s="32">
-        <v>20473</v>
+        <v>18227</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13790,10 +13788,10 @@
         <v>277</v>
       </c>
       <c r="B99" s="35">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="C99" s="32">
-        <v>20319</v>
+        <v>20562</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13801,10 +13799,10 @@
         <v>277</v>
       </c>
       <c r="B100" s="35">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="C100" s="32">
-        <v>17385</v>
+        <v>20366</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13812,10 +13810,10 @@
         <v>277</v>
       </c>
       <c r="B101" s="35">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="C101" s="32">
-        <v>17629</v>
+        <v>17465</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13823,10 +13821,10 @@
         <v>277</v>
       </c>
       <c r="B102" s="35">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="C102" s="32">
-        <v>11200</v>
+        <v>17704</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13834,10 +13832,10 @@
         <v>277</v>
       </c>
       <c r="B103" s="35">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="C103" s="32">
-        <v>1740</v>
+        <v>11202</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13845,10 +13843,10 @@
         <v>277</v>
       </c>
       <c r="B104" s="35">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="C104" s="32">
-        <v>8687</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13856,10 +13854,10 @@
         <v>277</v>
       </c>
       <c r="B105" s="35">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="C105" s="32">
-        <v>17371</v>
+        <v>8758</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13867,10 +13865,10 @@
         <v>277</v>
       </c>
       <c r="B106" s="35">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="C106" s="32">
-        <v>22909</v>
+        <v>17416</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13878,10 +13876,10 @@
         <v>277</v>
       </c>
       <c r="B107" s="35">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="C107" s="32">
-        <v>22063</v>
+        <v>22919</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13889,10 +13887,10 @@
         <v>277</v>
       </c>
       <c r="B108" s="35">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="C108" s="32">
-        <v>23593</v>
+        <v>22064</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13900,10 +13898,10 @@
         <v>277</v>
       </c>
       <c r="B109" s="35">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="C109" s="32">
-        <v>13160</v>
+        <v>23640</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13911,10 +13909,10 @@
         <v>277</v>
       </c>
       <c r="B110" s="35">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="C110" s="32">
-        <v>5246</v>
+        <v>13192</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13922,10 +13920,10 @@
         <v>277</v>
       </c>
       <c r="B111" s="35">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="C111" s="32">
-        <v>23184</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13933,10 +13931,10 @@
         <v>277</v>
       </c>
       <c r="B112" s="35">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="C112" s="32">
-        <v>30337</v>
+        <v>23385</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13944,10 +13942,10 @@
         <v>277</v>
       </c>
       <c r="B113" s="35">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="C113" s="32">
-        <v>32296</v>
+        <v>30653</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13955,10 +13953,10 @@
         <v>277</v>
       </c>
       <c r="B114" s="35">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="C114" s="32">
-        <v>31562</v>
+        <v>32835</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13966,10 +13964,10 @@
         <v>277</v>
       </c>
       <c r="B115" s="35">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="C115" s="32">
-        <v>29131</v>
+        <v>31874</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13977,10 +13975,10 @@
         <v>277</v>
       </c>
       <c r="B116" s="35">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="C116" s="32">
-        <v>14507</v>
+        <v>29432</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13988,10 +13986,10 @@
         <v>277</v>
       </c>
       <c r="B117" s="35">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="C117" s="32">
-        <v>5932</v>
+        <v>14723</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13999,10 +13997,10 @@
         <v>277</v>
       </c>
       <c r="B118" s="35">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="C118" s="32">
-        <v>23845</v>
+        <v>5945</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14010,10 +14008,10 @@
         <v>277</v>
       </c>
       <c r="B119" s="35">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="C119" s="32">
-        <v>27840</v>
+        <v>23895</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14021,10 +14019,10 @@
         <v>277</v>
       </c>
       <c r="B120" s="35">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="C120" s="32">
-        <v>35590</v>
+        <v>27897</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14032,10 +14030,10 @@
         <v>277</v>
       </c>
       <c r="B121" s="35">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="C121" s="32">
-        <v>36703</v>
+        <v>35629</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14043,10 +14041,10 @@
         <v>277</v>
       </c>
       <c r="B122" s="35">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="C122" s="32">
-        <v>40650</v>
+        <v>36758</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14054,10 +14052,10 @@
         <v>277</v>
       </c>
       <c r="B123" s="35">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="C123" s="32">
-        <v>23995</v>
+        <v>40719</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14065,10 +14063,10 @@
         <v>277</v>
       </c>
       <c r="B124" s="35">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="C124" s="32">
-        <v>5770</v>
+        <v>24012</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14076,10 +14074,10 @@
         <v>277</v>
       </c>
       <c r="B125" s="35">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="C125" s="32">
-        <v>21298</v>
+        <v>5776</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14087,10 +14085,10 @@
         <v>277</v>
       </c>
       <c r="B126" s="35">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="C126" s="32">
-        <v>30186</v>
+        <v>21312</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14098,10 +14096,10 @@
         <v>277</v>
       </c>
       <c r="B127" s="35">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="C127" s="32">
-        <v>31826</v>
+        <v>30434</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14109,10 +14107,10 @@
         <v>277</v>
       </c>
       <c r="B128" s="35">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="C128" s="32">
-        <v>28265</v>
+        <v>36820</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14120,10 +14118,10 @@
         <v>277</v>
       </c>
       <c r="B129" s="35">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="C129" s="32">
-        <v>33103</v>
+        <v>29109</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14131,10 +14129,10 @@
         <v>277</v>
       </c>
       <c r="B130" s="35">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="C130" s="32">
-        <v>17415</v>
+        <v>33473</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14142,10 +14140,10 @@
         <v>277</v>
       </c>
       <c r="B131" s="35">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="C131" s="32">
-        <v>4439</v>
+        <v>17692</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14153,10 +14151,10 @@
         <v>277</v>
       </c>
       <c r="B132" s="35">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="C132" s="32">
-        <v>2716</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14164,10 +14162,10 @@
         <v>277</v>
       </c>
       <c r="B133" s="35">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="C133" s="32">
-        <v>4173</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14175,10 +14173,10 @@
         <v>277</v>
       </c>
       <c r="B134" s="35">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="C134" s="32">
-        <v>1471</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14186,32 +14184,32 @@
         <v>277</v>
       </c>
       <c r="B135" s="35">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="C135" s="32">
-        <v>1450</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B136" s="35">
-        <v>44179</v>
+        <v>44245</v>
       </c>
       <c r="C136" s="32">
-        <v>24</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B137" s="35">
-        <v>44180</v>
+        <v>44246</v>
       </c>
       <c r="C137" s="32">
-        <v>305</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14219,10 +14217,10 @@
         <v>278</v>
       </c>
       <c r="B138" s="35">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="C138" s="32">
-        <v>955</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14230,10 +14228,10 @@
         <v>278</v>
       </c>
       <c r="B139" s="35">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="C139" s="32">
-        <v>1431</v>
+        <v>305</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14241,10 +14239,10 @@
         <v>278</v>
       </c>
       <c r="B140" s="35">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="C140" s="32">
-        <v>2029</v>
+        <v>955</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14252,10 +14250,10 @@
         <v>278</v>
       </c>
       <c r="B141" s="35">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="C141" s="32">
-        <v>1009</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14263,10 +14261,10 @@
         <v>278</v>
       </c>
       <c r="B142" s="35">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="C142" s="32">
-        <v>499</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14274,10 +14272,10 @@
         <v>278</v>
       </c>
       <c r="B143" s="35">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="C143" s="32">
-        <v>1512</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14285,10 +14283,10 @@
         <v>278</v>
       </c>
       <c r="B144" s="35">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="C144" s="32">
-        <v>2111</v>
+        <v>499</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14296,10 +14294,10 @@
         <v>278</v>
       </c>
       <c r="B145" s="35">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="C145" s="32">
-        <v>2925</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14307,10 +14305,10 @@
         <v>278</v>
       </c>
       <c r="B146" s="35">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="C146" s="32">
-        <v>1886</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14318,10 +14316,10 @@
         <v>278</v>
       </c>
       <c r="B147" s="35">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="C147" s="32">
-        <v>325</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14329,10 +14327,10 @@
         <v>278</v>
       </c>
       <c r="B148" s="35">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="C148" s="32">
-        <v>1725</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14340,10 +14338,10 @@
         <v>278</v>
       </c>
       <c r="B149" s="35">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="C149" s="32">
-        <v>1120</v>
+        <v>325</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14351,10 +14349,10 @@
         <v>278</v>
       </c>
       <c r="B150" s="35">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="C150" s="32">
-        <v>6669</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14362,10 +14360,10 @@
         <v>278</v>
       </c>
       <c r="B151" s="35">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="C151" s="32">
-        <v>10750</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14373,10 +14371,10 @@
         <v>278</v>
       </c>
       <c r="B152" s="35">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="C152" s="32">
-        <v>17526</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14384,10 +14382,10 @@
         <v>278</v>
       </c>
       <c r="B153" s="35">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="C153" s="32">
-        <v>10885</v>
+        <v>10780</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14395,10 +14393,10 @@
         <v>278</v>
       </c>
       <c r="B154" s="35">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="C154" s="32">
-        <v>1339</v>
+        <v>17577</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14406,10 +14404,10 @@
         <v>278</v>
       </c>
       <c r="B155" s="35">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="C155" s="32">
-        <v>6359</v>
+        <v>10887</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14417,10 +14415,10 @@
         <v>278</v>
       </c>
       <c r="B156" s="35">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="C156" s="32">
-        <v>3595</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14428,10 +14426,10 @@
         <v>278</v>
       </c>
       <c r="B157" s="35">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="C157" s="32">
-        <v>16441</v>
+        <v>6368</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14439,10 +14437,10 @@
         <v>278</v>
       </c>
       <c r="B158" s="35">
-        <v>44201</v>
+        <v>44199</v>
       </c>
       <c r="C158" s="32">
-        <v>18468</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14450,10 +14448,10 @@
         <v>278</v>
       </c>
       <c r="B159" s="35">
-        <v>44202</v>
+        <v>44200</v>
       </c>
       <c r="C159" s="32">
-        <v>20483</v>
+        <v>16498</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14461,10 +14459,10 @@
         <v>278</v>
       </c>
       <c r="B160" s="35">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="C160" s="32">
-        <v>24540</v>
+        <v>18533</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14472,10 +14470,10 @@
         <v>278</v>
       </c>
       <c r="B161" s="35">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="C161" s="32">
-        <v>24826</v>
+        <v>20633</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14483,10 +14481,10 @@
         <v>278</v>
       </c>
       <c r="B162" s="35">
-        <v>44205</v>
+        <v>44203</v>
       </c>
       <c r="C162" s="32">
-        <v>14057</v>
+        <v>24678</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14494,10 +14492,10 @@
         <v>278</v>
       </c>
       <c r="B163" s="35">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="C163" s="32">
-        <v>4423</v>
+        <v>24968</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14505,10 +14503,10 @@
         <v>278</v>
       </c>
       <c r="B164" s="35">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="C164" s="32">
-        <v>23823</v>
+        <v>14064</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14516,10 +14514,10 @@
         <v>278</v>
       </c>
       <c r="B165" s="35">
-        <v>44208</v>
+        <v>44206</v>
       </c>
       <c r="C165" s="32">
-        <v>29224</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14527,10 +14525,10 @@
         <v>278</v>
       </c>
       <c r="B166" s="35">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="C166" s="32">
-        <v>30236</v>
+        <v>23890</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14538,10 +14536,10 @@
         <v>278</v>
       </c>
       <c r="B167" s="35">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="C167" s="32">
-        <v>34488</v>
+        <v>29346</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14549,10 +14547,10 @@
         <v>278</v>
       </c>
       <c r="B168" s="35">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="C168" s="32">
-        <v>30668</v>
+        <v>30368</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14560,10 +14558,10 @@
         <v>278</v>
       </c>
       <c r="B169" s="35">
-        <v>44212</v>
+        <v>44210</v>
       </c>
       <c r="C169" s="32">
-        <v>25596</v>
+        <v>34665</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14571,10 +14569,10 @@
         <v>278</v>
       </c>
       <c r="B170" s="35">
-        <v>44213</v>
+        <v>44211</v>
       </c>
       <c r="C170" s="32">
-        <v>6738</v>
+        <v>30791</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14582,10 +14580,10 @@
         <v>278</v>
       </c>
       <c r="B171" s="35">
-        <v>44214</v>
+        <v>44212</v>
       </c>
       <c r="C171" s="32">
-        <v>12185</v>
+        <v>25599</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14593,10 +14591,10 @@
         <v>278</v>
       </c>
       <c r="B172" s="35">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="C172" s="32">
-        <v>22995</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14604,10 +14602,10 @@
         <v>278</v>
       </c>
       <c r="B173" s="35">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="C173" s="32">
-        <v>32169</v>
+        <v>12266</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14615,10 +14613,10 @@
         <v>278</v>
       </c>
       <c r="B174" s="35">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="C174" s="32">
-        <v>34055</v>
+        <v>23051</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14626,10 +14624,10 @@
         <v>278</v>
       </c>
       <c r="B175" s="35">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="C175" s="32">
-        <v>30638</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14637,10 +14635,10 @@
         <v>278</v>
       </c>
       <c r="B176" s="35">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="C176" s="32">
-        <v>21883</v>
+        <v>34060</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14648,10 +14646,10 @@
         <v>278</v>
       </c>
       <c r="B177" s="35">
-        <v>44220</v>
+        <v>44218</v>
       </c>
       <c r="C177" s="32">
-        <v>9017</v>
+        <v>30685</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14659,10 +14657,10 @@
         <v>278</v>
       </c>
       <c r="B178" s="35">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="C178" s="32">
-        <v>26917</v>
+        <v>21929</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14670,10 +14668,10 @@
         <v>278</v>
       </c>
       <c r="B179" s="35">
-        <v>44222</v>
+        <v>44220</v>
       </c>
       <c r="C179" s="32">
-        <v>38135</v>
+        <v>9019</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14681,10 +14679,10 @@
         <v>278</v>
       </c>
       <c r="B180" s="35">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="C180" s="32">
-        <v>44911</v>
+        <v>27110</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14692,10 +14690,10 @@
         <v>278</v>
       </c>
       <c r="B181" s="35">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="C181" s="32">
-        <v>49469</v>
+        <v>38501</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14703,10 +14701,10 @@
         <v>278</v>
       </c>
       <c r="B182" s="35">
-        <v>44225</v>
+        <v>44223</v>
       </c>
       <c r="C182" s="32">
-        <v>45016</v>
+        <v>45701</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14714,10 +14712,10 @@
         <v>278</v>
       </c>
       <c r="B183" s="35">
-        <v>44226</v>
+        <v>44224</v>
       </c>
       <c r="C183" s="32">
-        <v>23056</v>
+        <v>49913</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14725,10 +14723,10 @@
         <v>278</v>
       </c>
       <c r="B184" s="35">
-        <v>44227</v>
+        <v>44225</v>
       </c>
       <c r="C184" s="32">
-        <v>7211</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14736,10 +14734,10 @@
         <v>278</v>
       </c>
       <c r="B185" s="35">
-        <v>44228</v>
+        <v>44226</v>
       </c>
       <c r="C185" s="32">
-        <v>35244</v>
+        <v>23393</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14747,10 +14745,10 @@
         <v>278</v>
       </c>
       <c r="B186" s="35">
-        <v>44229</v>
+        <v>44227</v>
       </c>
       <c r="C186" s="32">
-        <v>45290</v>
+        <v>7238</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14758,10 +14756,10 @@
         <v>278</v>
       </c>
       <c r="B187" s="35">
-        <v>44230</v>
+        <v>44228</v>
       </c>
       <c r="C187" s="32">
-        <v>58728</v>
+        <v>35430</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14769,10 +14767,10 @@
         <v>278</v>
       </c>
       <c r="B188" s="35">
-        <v>44231</v>
+        <v>44229</v>
       </c>
       <c r="C188" s="32">
-        <v>69750</v>
+        <v>45815</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14780,10 +14778,10 @@
         <v>278</v>
       </c>
       <c r="B189" s="35">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="C189" s="32">
-        <v>71487</v>
+        <v>58995</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14791,10 +14789,10 @@
         <v>278</v>
       </c>
       <c r="B190" s="35">
-        <v>44233</v>
+        <v>44231</v>
       </c>
       <c r="C190" s="32">
-        <v>48238</v>
+        <v>69871</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14802,10 +14800,10 @@
         <v>278</v>
       </c>
       <c r="B191" s="35">
-        <v>44234</v>
+        <v>44232</v>
       </c>
       <c r="C191" s="32">
-        <v>15257</v>
+        <v>71548</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14813,10 +14811,10 @@
         <v>278</v>
       </c>
       <c r="B192" s="35">
-        <v>44235</v>
+        <v>44233</v>
       </c>
       <c r="C192" s="32">
-        <v>37356</v>
+        <v>48264</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14824,10 +14822,10 @@
         <v>278</v>
       </c>
       <c r="B193" s="35">
-        <v>44236</v>
+        <v>44234</v>
       </c>
       <c r="C193" s="32">
-        <v>49965</v>
+        <v>15258</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14835,10 +14833,10 @@
         <v>278</v>
       </c>
       <c r="B194" s="35">
-        <v>44237</v>
+        <v>44235</v>
       </c>
       <c r="C194" s="32">
-        <v>54503</v>
+        <v>37395</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14846,10 +14844,10 @@
         <v>278</v>
       </c>
       <c r="B195" s="35">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c r="C195" s="32">
-        <v>50413</v>
+        <v>50693</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14857,10 +14855,10 @@
         <v>278</v>
       </c>
       <c r="B196" s="35">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="C196" s="32">
-        <v>61310</v>
+        <v>62761</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14868,10 +14866,10 @@
         <v>278</v>
       </c>
       <c r="B197" s="35">
-        <v>44240</v>
+        <v>44238</v>
       </c>
       <c r="C197" s="32">
-        <v>30382</v>
+        <v>51588</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14879,10 +14877,10 @@
         <v>278</v>
       </c>
       <c r="B198" s="35">
-        <v>44241</v>
+        <v>44239</v>
       </c>
       <c r="C198" s="32">
-        <v>10327</v>
+        <v>61773</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14890,10 +14888,10 @@
         <v>278</v>
       </c>
       <c r="B199" s="35">
-        <v>44242</v>
+        <v>44240</v>
       </c>
       <c r="C199" s="32">
-        <v>2005</v>
+        <v>30680</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14901,10 +14899,10 @@
         <v>278</v>
       </c>
       <c r="B200" s="35">
-        <v>44243</v>
+        <v>44241</v>
       </c>
       <c r="C200" s="32">
-        <v>3971</v>
+        <v>10393</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14912,10 +14910,10 @@
         <v>278</v>
       </c>
       <c r="B201" s="35">
-        <v>44244</v>
+        <v>44242</v>
       </c>
       <c r="C201" s="32">
-        <v>1810</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14923,43 +14921,43 @@
         <v>278</v>
       </c>
       <c r="B202" s="35">
-        <v>44245</v>
+        <v>44243</v>
       </c>
       <c r="C202" s="32">
-        <v>1935</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B203" s="35">
-        <v>44179</v>
+        <v>44244</v>
       </c>
       <c r="C203" s="32">
-        <v>2</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B204" s="35">
-        <v>44180</v>
+        <v>44245</v>
       </c>
       <c r="C204" s="32">
-        <v>7</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B205" s="35">
-        <v>44181</v>
+        <v>44246</v>
       </c>
       <c r="C205" s="32">
-        <v>34</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14967,10 +14965,10 @@
         <v>279</v>
       </c>
       <c r="B206" s="35">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="C206" s="32">
-        <v>69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14978,10 +14976,10 @@
         <v>279</v>
       </c>
       <c r="B207" s="35">
-        <v>44183</v>
+        <v>44180</v>
       </c>
       <c r="C207" s="32">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14989,10 +14987,10 @@
         <v>279</v>
       </c>
       <c r="B208" s="35">
-        <v>44184</v>
+        <v>44181</v>
       </c>
       <c r="C208" s="32">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15000,10 +14998,10 @@
         <v>279</v>
       </c>
       <c r="B209" s="35">
-        <v>44185</v>
+        <v>44182</v>
       </c>
       <c r="C209" s="32">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15011,10 +15009,10 @@
         <v>279</v>
       </c>
       <c r="B210" s="35">
-        <v>44186</v>
+        <v>44183</v>
       </c>
       <c r="C210" s="32">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15022,10 +15020,10 @@
         <v>279</v>
       </c>
       <c r="B211" s="35">
-        <v>44187</v>
+        <v>44184</v>
       </c>
       <c r="C211" s="32">
-        <v>164</v>
+        <v>47</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15033,10 +15031,10 @@
         <v>279</v>
       </c>
       <c r="B212" s="35">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="C212" s="32">
-        <v>585</v>
+        <v>89</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15044,10 +15042,10 @@
         <v>279</v>
       </c>
       <c r="B213" s="35">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="C213" s="32">
-        <v>409</v>
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15055,10 +15053,10 @@
         <v>279</v>
       </c>
       <c r="B214" s="35">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="C214" s="32">
-        <v>57</v>
+        <v>164</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15066,10 +15064,10 @@
         <v>279</v>
       </c>
       <c r="B215" s="35">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="C215" s="32">
-        <v>509</v>
+        <v>585</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15077,10 +15075,10 @@
         <v>279</v>
       </c>
       <c r="B216" s="35">
-        <v>44192</v>
+        <v>44189</v>
       </c>
       <c r="C216" s="32">
-        <v>367</v>
+        <v>409</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15088,10 +15086,10 @@
         <v>279</v>
       </c>
       <c r="B217" s="35">
-        <v>44193</v>
+        <v>44190</v>
       </c>
       <c r="C217" s="32">
-        <v>2728</v>
+        <v>57</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15099,10 +15097,10 @@
         <v>279</v>
       </c>
       <c r="B218" s="35">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="C218" s="32">
-        <v>5577</v>
+        <v>509</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15110,10 +15108,10 @@
         <v>279</v>
       </c>
       <c r="B219" s="35">
-        <v>44195</v>
+        <v>44192</v>
       </c>
       <c r="C219" s="32">
-        <v>7213</v>
+        <v>367</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15121,10 +15119,10 @@
         <v>279</v>
       </c>
       <c r="B220" s="35">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="C220" s="32">
-        <v>3220</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15132,10 +15130,10 @@
         <v>279</v>
       </c>
       <c r="B221" s="35">
-        <v>44197</v>
+        <v>44194</v>
       </c>
       <c r="C221" s="32">
-        <v>422</v>
+        <v>5577</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15143,10 +15141,10 @@
         <v>279</v>
       </c>
       <c r="B222" s="35">
-        <v>44198</v>
+        <v>44195</v>
       </c>
       <c r="C222" s="32">
-        <v>2068</v>
+        <v>7221</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15154,10 +15152,10 @@
         <v>279</v>
       </c>
       <c r="B223" s="35">
-        <v>44199</v>
+        <v>44196</v>
       </c>
       <c r="C223" s="32">
-        <v>1250</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15165,10 +15163,10 @@
         <v>279</v>
       </c>
       <c r="B224" s="35">
-        <v>44200</v>
+        <v>44197</v>
       </c>
       <c r="C224" s="32">
-        <v>6691</v>
+        <v>422</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15176,10 +15174,10 @@
         <v>279</v>
       </c>
       <c r="B225" s="35">
-        <v>44201</v>
+        <v>44198</v>
       </c>
       <c r="C225" s="32">
-        <v>5876</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15187,10 +15185,10 @@
         <v>279</v>
       </c>
       <c r="B226" s="35">
-        <v>44202</v>
+        <v>44199</v>
       </c>
       <c r="C226" s="32">
-        <v>7624</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15198,10 +15196,10 @@
         <v>279</v>
       </c>
       <c r="B227" s="35">
-        <v>44203</v>
+        <v>44200</v>
       </c>
       <c r="C227" s="32">
-        <v>9455</v>
+        <v>6698</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15209,10 +15207,10 @@
         <v>279</v>
       </c>
       <c r="B228" s="35">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="C228" s="32">
-        <v>8680</v>
+        <v>5898</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15220,10 +15218,10 @@
         <v>279</v>
       </c>
       <c r="B229" s="35">
-        <v>44205</v>
+        <v>44202</v>
       </c>
       <c r="C229" s="32">
-        <v>4762</v>
+        <v>7673</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15231,10 +15229,10 @@
         <v>279</v>
       </c>
       <c r="B230" s="35">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="C230" s="32">
-        <v>1387</v>
+        <v>9523</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15242,10 +15240,10 @@
         <v>279</v>
       </c>
       <c r="B231" s="35">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="C231" s="32">
-        <v>8432</v>
+        <v>8723</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15253,10 +15251,10 @@
         <v>279</v>
       </c>
       <c r="B232" s="35">
-        <v>44208</v>
+        <v>44205</v>
       </c>
       <c r="C232" s="32">
-        <v>9323</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15264,10 +15262,10 @@
         <v>279</v>
       </c>
       <c r="B233" s="35">
-        <v>44209</v>
+        <v>44206</v>
       </c>
       <c r="C233" s="32">
-        <v>11627</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15275,10 +15273,10 @@
         <v>279</v>
       </c>
       <c r="B234" s="35">
-        <v>44210</v>
+        <v>44207</v>
       </c>
       <c r="C234" s="32">
-        <v>12149</v>
+        <v>8451</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15286,10 +15284,10 @@
         <v>279</v>
       </c>
       <c r="B235" s="35">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="C235" s="32">
-        <v>9033</v>
+        <v>9367</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15297,10 +15295,10 @@
         <v>279</v>
       </c>
       <c r="B236" s="35">
-        <v>44212</v>
+        <v>44209</v>
       </c>
       <c r="C236" s="32">
-        <v>5487</v>
+        <v>11665</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15308,10 +15306,10 @@
         <v>279</v>
       </c>
       <c r="B237" s="35">
-        <v>44213</v>
+        <v>44210</v>
       </c>
       <c r="C237" s="32">
-        <v>1725</v>
+        <v>12204</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15319,10 +15317,10 @@
         <v>279</v>
       </c>
       <c r="B238" s="35">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="C238" s="32">
-        <v>5175</v>
+        <v>9059</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15330,10 +15328,10 @@
         <v>279</v>
       </c>
       <c r="B239" s="35">
-        <v>44215</v>
+        <v>44212</v>
       </c>
       <c r="C239" s="32">
-        <v>8819</v>
+        <v>5487</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15341,10 +15339,10 @@
         <v>279</v>
       </c>
       <c r="B240" s="35">
-        <v>44216</v>
+        <v>44213</v>
       </c>
       <c r="C240" s="32">
-        <v>11081</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15352,10 +15350,10 @@
         <v>279</v>
       </c>
       <c r="B241" s="35">
-        <v>44217</v>
+        <v>44214</v>
       </c>
       <c r="C241" s="32">
-        <v>10741</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15363,10 +15361,10 @@
         <v>279</v>
       </c>
       <c r="B242" s="35">
-        <v>44218</v>
+        <v>44215</v>
       </c>
       <c r="C242" s="32">
-        <v>8633</v>
+        <v>8842</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15374,10 +15372,10 @@
         <v>279</v>
       </c>
       <c r="B243" s="35">
-        <v>44219</v>
+        <v>44216</v>
       </c>
       <c r="C243" s="32">
-        <v>6110</v>
+        <v>11091</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15385,10 +15383,10 @@
         <v>279</v>
       </c>
       <c r="B244" s="35">
-        <v>44220</v>
+        <v>44217</v>
       </c>
       <c r="C244" s="32">
-        <v>2038</v>
+        <v>10750</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15396,10 +15394,10 @@
         <v>279</v>
       </c>
       <c r="B245" s="35">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="C245" s="32">
-        <v>8997</v>
+        <v>8642</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15407,10 +15405,10 @@
         <v>279</v>
       </c>
       <c r="B246" s="35">
-        <v>44222</v>
+        <v>44219</v>
       </c>
       <c r="C246" s="32">
-        <v>13234</v>
+        <v>6113</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15418,10 +15416,10 @@
         <v>279</v>
       </c>
       <c r="B247" s="35">
-        <v>44223</v>
+        <v>44220</v>
       </c>
       <c r="C247" s="32">
-        <v>15313</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15429,10 +15427,10 @@
         <v>279</v>
       </c>
       <c r="B248" s="35">
-        <v>44224</v>
+        <v>44221</v>
       </c>
       <c r="C248" s="32">
-        <v>16068</v>
+        <v>9025</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15440,10 +15438,10 @@
         <v>279</v>
       </c>
       <c r="B249" s="35">
-        <v>44225</v>
+        <v>44222</v>
       </c>
       <c r="C249" s="32">
-        <v>13730</v>
+        <v>13271</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15451,10 +15449,10 @@
         <v>279</v>
       </c>
       <c r="B250" s="35">
-        <v>44226</v>
+        <v>44223</v>
       </c>
       <c r="C250" s="32">
-        <v>7082</v>
+        <v>15456</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15462,10 +15460,10 @@
         <v>279</v>
       </c>
       <c r="B251" s="35">
-        <v>44227</v>
+        <v>44224</v>
       </c>
       <c r="C251" s="32">
-        <v>3382</v>
+        <v>16133</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15473,10 +15471,10 @@
         <v>279</v>
       </c>
       <c r="B252" s="35">
-        <v>44228</v>
+        <v>44225</v>
       </c>
       <c r="C252" s="32">
-        <v>12503</v>
+        <v>13792</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15484,10 +15482,10 @@
         <v>279</v>
       </c>
       <c r="B253" s="35">
-        <v>44229</v>
+        <v>44226</v>
       </c>
       <c r="C253" s="32">
-        <v>16080</v>
+        <v>7118</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15495,10 +15493,10 @@
         <v>279</v>
       </c>
       <c r="B254" s="35">
-        <v>44230</v>
+        <v>44227</v>
       </c>
       <c r="C254" s="32">
-        <v>17446</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15506,10 +15504,10 @@
         <v>279</v>
       </c>
       <c r="B255" s="35">
-        <v>44231</v>
+        <v>44228</v>
       </c>
       <c r="C255" s="32">
-        <v>19621</v>
+        <v>12551</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15517,10 +15515,10 @@
         <v>279</v>
       </c>
       <c r="B256" s="35">
-        <v>44232</v>
+        <v>44229</v>
       </c>
       <c r="C256" s="32">
-        <v>20867</v>
+        <v>16168</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15528,10 +15526,10 @@
         <v>279</v>
       </c>
       <c r="B257" s="35">
-        <v>44233</v>
+        <v>44230</v>
       </c>
       <c r="C257" s="32">
-        <v>12270</v>
+        <v>17514</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15539,10 +15537,10 @@
         <v>279</v>
       </c>
       <c r="B258" s="35">
-        <v>44234</v>
+        <v>44231</v>
       </c>
       <c r="C258" s="32">
-        <v>2993</v>
+        <v>19656</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15550,10 +15548,10 @@
         <v>279</v>
       </c>
       <c r="B259" s="35">
-        <v>44235</v>
+        <v>44232</v>
       </c>
       <c r="C259" s="32">
-        <v>11551</v>
+        <v>20901</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15561,10 +15559,10 @@
         <v>279</v>
       </c>
       <c r="B260" s="35">
-        <v>44236</v>
+        <v>44233</v>
       </c>
       <c r="C260" s="32">
-        <v>14159</v>
+        <v>12277</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15572,10 +15570,10 @@
         <v>279</v>
       </c>
       <c r="B261" s="35">
-        <v>44237</v>
+        <v>44234</v>
       </c>
       <c r="C261" s="32">
-        <v>16575</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15583,10 +15581,10 @@
         <v>279</v>
       </c>
       <c r="B262" s="35">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="C262" s="32">
-        <v>14161</v>
+        <v>11563</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15594,10 +15592,10 @@
         <v>279</v>
       </c>
       <c r="B263" s="35">
-        <v>44239</v>
+        <v>44236</v>
       </c>
       <c r="C263" s="32">
-        <v>16637</v>
+        <v>14348</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15605,10 +15603,10 @@
         <v>279</v>
       </c>
       <c r="B264" s="35">
-        <v>44240</v>
+        <v>44237</v>
       </c>
       <c r="C264" s="32">
-        <v>7559</v>
+        <v>18824</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15616,10 +15614,10 @@
         <v>279</v>
       </c>
       <c r="B265" s="35">
-        <v>44241</v>
+        <v>44238</v>
       </c>
       <c r="C265" s="32">
-        <v>1980</v>
+        <v>14503</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15627,10 +15625,10 @@
         <v>279</v>
       </c>
       <c r="B266" s="35">
-        <v>44242</v>
+        <v>44239</v>
       </c>
       <c r="C266" s="32">
-        <v>503</v>
+        <v>16770</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15638,10 +15636,10 @@
         <v>279</v>
       </c>
       <c r="B267" s="35">
-        <v>44243</v>
+        <v>44240</v>
       </c>
       <c r="C267" s="32">
-        <v>869</v>
+        <v>7621</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15649,10 +15647,10 @@
         <v>279</v>
       </c>
       <c r="B268" s="35">
-        <v>44244</v>
+        <v>44241</v>
       </c>
       <c r="C268" s="32">
-        <v>623</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15660,54 +15658,54 @@
         <v>279</v>
       </c>
       <c r="B269" s="35">
-        <v>44245</v>
+        <v>44242</v>
       </c>
       <c r="C269" s="32">
-        <v>626</v>
+        <v>561</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B270" s="35">
-        <v>44180</v>
+        <v>44243</v>
       </c>
       <c r="C270" s="32">
-        <v>2</v>
+        <v>987</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B271" s="35">
-        <v>44181</v>
+        <v>44244</v>
       </c>
       <c r="C271" s="32">
-        <v>6</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B272" s="35">
-        <v>44182</v>
+        <v>44245</v>
       </c>
       <c r="C272" s="32">
-        <v>13</v>
+        <v>970</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B273" s="35">
-        <v>44183</v>
+        <v>44246</v>
       </c>
       <c r="C273" s="32">
-        <v>40</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15715,10 +15713,10 @@
         <v>280</v>
       </c>
       <c r="B274" s="35">
-        <v>44184</v>
+        <v>44180</v>
       </c>
       <c r="C274" s="32">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15726,10 +15724,10 @@
         <v>280</v>
       </c>
       <c r="B275" s="35">
-        <v>44185</v>
+        <v>44181</v>
       </c>
       <c r="C275" s="32">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15737,10 +15735,10 @@
         <v>280</v>
       </c>
       <c r="B276" s="35">
-        <v>44186</v>
+        <v>44182</v>
       </c>
       <c r="C276" s="32">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15748,10 +15746,10 @@
         <v>280</v>
       </c>
       <c r="B277" s="35">
-        <v>44187</v>
+        <v>44183</v>
       </c>
       <c r="C277" s="32">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15759,10 +15757,10 @@
         <v>280</v>
       </c>
       <c r="B278" s="35">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="C278" s="32">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15770,10 +15768,10 @@
         <v>280</v>
       </c>
       <c r="B279" s="35">
-        <v>44189</v>
+        <v>44185</v>
       </c>
       <c r="C279" s="32">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15781,10 +15779,10 @@
         <v>280</v>
       </c>
       <c r="B280" s="35">
-        <v>44190</v>
+        <v>44186</v>
       </c>
       <c r="C280" s="32">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15792,10 +15790,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="35">
-        <v>44191</v>
+        <v>44187</v>
       </c>
       <c r="C281" s="32">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15803,10 +15801,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="35">
-        <v>44192</v>
+        <v>44188</v>
       </c>
       <c r="C282" s="32">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15814,10 +15812,10 @@
         <v>280</v>
       </c>
       <c r="B283" s="35">
-        <v>44193</v>
+        <v>44189</v>
       </c>
       <c r="C283" s="32">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15825,10 +15823,10 @@
         <v>280</v>
       </c>
       <c r="B284" s="35">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="C284" s="32">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15836,10 +15834,10 @@
         <v>280</v>
       </c>
       <c r="B285" s="35">
-        <v>44195</v>
+        <v>44191</v>
       </c>
       <c r="C285" s="32">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -15847,10 +15845,10 @@
         <v>280</v>
       </c>
       <c r="B286" s="36">
-        <v>44196</v>
+        <v>44192</v>
       </c>
       <c r="C286" s="33">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -15858,10 +15856,10 @@
         <v>280</v>
       </c>
       <c r="B287" s="36">
-        <v>44197</v>
+        <v>44193</v>
       </c>
       <c r="C287" s="33">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -15869,10 +15867,10 @@
         <v>280</v>
       </c>
       <c r="B288" s="36">
-        <v>44198</v>
+        <v>44194</v>
       </c>
       <c r="C288" s="33">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -15880,10 +15878,10 @@
         <v>280</v>
       </c>
       <c r="B289" s="36">
-        <v>44199</v>
+        <v>44195</v>
       </c>
       <c r="C289" s="33">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -15891,10 +15889,10 @@
         <v>280</v>
       </c>
       <c r="B290" s="36">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="C290" s="33">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -15902,10 +15900,10 @@
         <v>280</v>
       </c>
       <c r="B291" s="36">
-        <v>44201</v>
+        <v>44197</v>
       </c>
       <c r="C291" s="33">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -15913,10 +15911,10 @@
         <v>280</v>
       </c>
       <c r="B292" s="36">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="C292" s="33">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -15924,10 +15922,10 @@
         <v>280</v>
       </c>
       <c r="B293" s="36">
-        <v>44203</v>
+        <v>44199</v>
       </c>
       <c r="C293" s="33">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -15935,10 +15933,10 @@
         <v>280</v>
       </c>
       <c r="B294" s="36">
-        <v>44204</v>
+        <v>44200</v>
       </c>
       <c r="C294" s="33">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -15946,10 +15944,10 @@
         <v>280</v>
       </c>
       <c r="B295" s="36">
-        <v>44205</v>
+        <v>44201</v>
       </c>
       <c r="C295" s="33">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -15957,10 +15955,10 @@
         <v>280</v>
       </c>
       <c r="B296" s="36">
-        <v>44206</v>
+        <v>44202</v>
       </c>
       <c r="C296" s="33">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -15968,10 +15966,10 @@
         <v>280</v>
       </c>
       <c r="B297" s="36">
-        <v>44207</v>
+        <v>44203</v>
       </c>
       <c r="C297" s="33">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -15979,10 +15977,10 @@
         <v>280</v>
       </c>
       <c r="B298" s="36">
-        <v>44208</v>
+        <v>44204</v>
       </c>
       <c r="C298" s="33">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -15990,10 +15988,10 @@
         <v>280</v>
       </c>
       <c r="B299" s="36">
-        <v>44209</v>
+        <v>44205</v>
       </c>
       <c r="C299" s="33">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -16001,10 +15999,10 @@
         <v>280</v>
       </c>
       <c r="B300" s="36">
-        <v>44210</v>
+        <v>44206</v>
       </c>
       <c r="C300" s="33">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -16012,10 +16010,10 @@
         <v>280</v>
       </c>
       <c r="B301" s="36">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="C301" s="33">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -16023,10 +16021,10 @@
         <v>280</v>
       </c>
       <c r="B302" s="36">
-        <v>44212</v>
+        <v>44208</v>
       </c>
       <c r="C302" s="33">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -16034,10 +16032,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="36">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="C303" s="33">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -16045,10 +16043,10 @@
         <v>280</v>
       </c>
       <c r="B304" s="36">
-        <v>44214</v>
+        <v>44210</v>
       </c>
       <c r="C304" s="33">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -16056,10 +16054,10 @@
         <v>280</v>
       </c>
       <c r="B305" s="36">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="C305" s="33">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -16067,10 +16065,10 @@
         <v>280</v>
       </c>
       <c r="B306" s="36">
-        <v>44216</v>
+        <v>44212</v>
       </c>
       <c r="C306" s="33">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -16078,10 +16076,10 @@
         <v>280</v>
       </c>
       <c r="B307" s="36">
-        <v>44217</v>
+        <v>44213</v>
       </c>
       <c r="C307" s="33">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -16089,10 +16087,10 @@
         <v>280</v>
       </c>
       <c r="B308" s="36">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="C308" s="33">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -16100,10 +16098,10 @@
         <v>280</v>
       </c>
       <c r="B309" s="36">
-        <v>44219</v>
+        <v>44215</v>
       </c>
       <c r="C309" s="33">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -16111,10 +16109,10 @@
         <v>280</v>
       </c>
       <c r="B310" s="36">
-        <v>44220</v>
+        <v>44216</v>
       </c>
       <c r="C310" s="33">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -16122,10 +16120,10 @@
         <v>280</v>
       </c>
       <c r="B311" s="36">
-        <v>44221</v>
+        <v>44217</v>
       </c>
       <c r="C311" s="33">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -16133,10 +16131,10 @@
         <v>280</v>
       </c>
       <c r="B312" s="36">
-        <v>44222</v>
+        <v>44218</v>
       </c>
       <c r="C312" s="33">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -16144,10 +16142,10 @@
         <v>280</v>
       </c>
       <c r="B313" s="36">
-        <v>44223</v>
+        <v>44219</v>
       </c>
       <c r="C313" s="33">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -16155,10 +16153,10 @@
         <v>280</v>
       </c>
       <c r="B314" s="36">
-        <v>44224</v>
+        <v>44220</v>
       </c>
       <c r="C314" s="33">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -16166,10 +16164,10 @@
         <v>280</v>
       </c>
       <c r="B315" s="36">
-        <v>44225</v>
+        <v>44221</v>
       </c>
       <c r="C315" s="33">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -16177,10 +16175,10 @@
         <v>280</v>
       </c>
       <c r="B316" s="36">
-        <v>44226</v>
+        <v>44222</v>
       </c>
       <c r="C316" s="33">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -16188,10 +16186,10 @@
         <v>280</v>
       </c>
       <c r="B317" s="36">
-        <v>44227</v>
+        <v>44223</v>
       </c>
       <c r="C317" s="33">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -16199,10 +16197,10 @@
         <v>280</v>
       </c>
       <c r="B318" s="36">
-        <v>44228</v>
+        <v>44224</v>
       </c>
       <c r="C318" s="33">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -16210,10 +16208,10 @@
         <v>280</v>
       </c>
       <c r="B319" s="36">
-        <v>44229</v>
+        <v>44225</v>
       </c>
       <c r="C319" s="33">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -16221,10 +16219,10 @@
         <v>280</v>
       </c>
       <c r="B320" s="36">
-        <v>44230</v>
+        <v>44226</v>
       </c>
       <c r="C320" s="33">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -16232,10 +16230,10 @@
         <v>280</v>
       </c>
       <c r="B321" s="36">
-        <v>44231</v>
+        <v>44227</v>
       </c>
       <c r="C321" s="33">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -16243,10 +16241,10 @@
         <v>280</v>
       </c>
       <c r="B322" s="36">
-        <v>44232</v>
+        <v>44228</v>
       </c>
       <c r="C322" s="33">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -16254,10 +16252,10 @@
         <v>280</v>
       </c>
       <c r="B323" s="36">
-        <v>44233</v>
+        <v>44229</v>
       </c>
       <c r="C323" s="33">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -16265,10 +16263,10 @@
         <v>280</v>
       </c>
       <c r="B324" s="36">
-        <v>44234</v>
+        <v>44230</v>
       </c>
       <c r="C324" s="33">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -16276,10 +16274,10 @@
         <v>280</v>
       </c>
       <c r="B325" s="36">
-        <v>44235</v>
+        <v>44231</v>
       </c>
       <c r="C325" s="33">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -16287,10 +16285,10 @@
         <v>280</v>
       </c>
       <c r="B326" s="36">
-        <v>44236</v>
+        <v>44232</v>
       </c>
       <c r="C326" s="33">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -16298,10 +16296,10 @@
         <v>280</v>
       </c>
       <c r="B327" s="36">
-        <v>44237</v>
+        <v>44233</v>
       </c>
       <c r="C327" s="33">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -16309,10 +16307,10 @@
         <v>280</v>
       </c>
       <c r="B328" s="36">
-        <v>44238</v>
+        <v>44234</v>
       </c>
       <c r="C328" s="33">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -16320,10 +16318,10 @@
         <v>280</v>
       </c>
       <c r="B329" s="36">
-        <v>44239</v>
+        <v>44235</v>
       </c>
       <c r="C329" s="33">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -16331,10 +16329,10 @@
         <v>280</v>
       </c>
       <c r="B330" s="36">
-        <v>44240</v>
+        <v>44236</v>
       </c>
       <c r="C330" s="33">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -16342,10 +16340,10 @@
         <v>280</v>
       </c>
       <c r="B331" s="36">
-        <v>44242</v>
+        <v>44237</v>
       </c>
       <c r="C331" s="33">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -16353,10 +16351,10 @@
         <v>280</v>
       </c>
       <c r="B332" s="36">
-        <v>44243</v>
+        <v>44238</v>
       </c>
       <c r="C332" s="33">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -16364,10 +16362,10 @@
         <v>280</v>
       </c>
       <c r="B333" s="36">
-        <v>44244</v>
+        <v>44239</v>
       </c>
       <c r="C333" s="33">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -16375,10 +16373,65 @@
         <v>280</v>
       </c>
       <c r="B334" s="36">
+        <v>44240</v>
+      </c>
+      <c r="C334" s="33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B335" s="36">
+        <v>44242</v>
+      </c>
+      <c r="C335" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B336" s="36">
+        <v>44243</v>
+      </c>
+      <c r="C336" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B337" s="36">
+        <v>44244</v>
+      </c>
+      <c r="C337" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B338" s="36">
         <v>44245</v>
       </c>
-      <c r="C334" s="33">
-        <v>6</v>
+      <c r="C338" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B339" s="36">
+        <v>44246</v>
+      </c>
+      <c r="C339" s="33">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
